--- a/Output/Output Files/INIS-FSS-052820-006 (HRT 11-13).xlsx
+++ b/Output/Output Files/INIS-FSS-052820-006 (HRT 11-13).xlsx
@@ -1,49 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="7155" tabRatio="818" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="818" visibility="visible" windowHeight="7155" windowWidth="19320" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Systematic SDS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Systematic Map" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Judgmental SDS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Judgmental SDS (2)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Judgmental Map" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QC" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picture" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picture (2)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picture (3)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picture (4)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picture (5)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Picture (6)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Systematic SDS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Systematic Map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Judgmental SDS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Judgmental SDS (2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Judgmental Map" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="QC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Picture" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Picture (2)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Picture (3)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Picture (4)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Picture (5)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Picture (6)" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_2360" localSheetId="4">#REF!</definedName>
-    <definedName name="_2360" localSheetId="2">#REF!</definedName>
-    <definedName name="_2360" localSheetId="3">#REF!</definedName>
-    <definedName name="_2360" localSheetId="6">#REF!</definedName>
-    <definedName name="_2360" localSheetId="7">#REF!</definedName>
-    <definedName name="_2360" localSheetId="8">#REF!</definedName>
-    <definedName name="_2360" localSheetId="9">#REF!</definedName>
-    <definedName name="_2360" localSheetId="10">#REF!</definedName>
-    <definedName name="_2360" localSheetId="11">#REF!</definedName>
-    <definedName name="_2360" localSheetId="5">#REF!</definedName>
-    <definedName name="_2360" localSheetId="1">#REF!</definedName>
+    <definedName localSheetId="4" name="_2360">#REF!</definedName>
+    <definedName localSheetId="2" name="_2360">#REF!</definedName>
+    <definedName localSheetId="3" name="_2360">#REF!</definedName>
+    <definedName localSheetId="6" name="_2360">#REF!</definedName>
+    <definedName localSheetId="7" name="_2360">#REF!</definedName>
+    <definedName localSheetId="8" name="_2360">#REF!</definedName>
+    <definedName localSheetId="9" name="_2360">#REF!</definedName>
+    <definedName localSheetId="10" name="_2360">#REF!</definedName>
+    <definedName localSheetId="11" name="_2360">#REF!</definedName>
+    <definedName localSheetId="5" name="_2360">#REF!</definedName>
+    <definedName localSheetId="1" name="_2360">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Systematic SDS'!$A$1:$Y$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Systematic Map'!$A$1:$BY$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Judgmental SDS'!$A$1:$Y$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Judgmental SDS (2)'!$A$1:$Y$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Judgmental Map'!$A$1:$BY$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'QC'!$A$1:$Y$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Picture'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Picture (2)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Picture (3)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'Picture (4)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'Picture (5)'!$A$1:$BY$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'Picture (6)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Systematic SDS'!$A$1:$Y$42</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'Systematic Map'!$A$1:$BY$44</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Judgmental SDS'!$A$1:$Y$42</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'Judgmental SDS (2)'!$A$1:$Y$42</definedName>
+    <definedName localSheetId="4" name="_xlnm.Print_Area">'Judgmental Map'!$A$1:$BY$44</definedName>
+    <definedName localSheetId="5" name="_xlnm.Print_Area">'QC'!$A$1:$Y$42</definedName>
+    <definedName localSheetId="6" name="_xlnm.Print_Area">'Picture'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="7" name="_xlnm.Print_Area">'Picture (2)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="8" name="_xlnm.Print_Area">'Picture (3)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="9" name="_xlnm.Print_Area">'Picture (4)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="10" name="_xlnm.Print_Area">'Picture (5)'!$A$1:$BY$45</definedName>
+    <definedName localSheetId="11" name="_xlnm.Print_Area">'Picture (6)'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -52,9 +52,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
+    <numFmt formatCode="m/d/yy;@" numFmtId="166"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1630,1356 +1630,1356 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="443">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="69" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="45" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="65" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="66" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="37" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="46" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="47" fillId="0" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="48" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="49" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="59" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="66" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="71" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="72" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="42" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="23" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="73" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="25" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="74" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="32" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="19" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="37" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="37" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="46" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="46" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="3" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="50" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="66" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="37" fillId="2" fontId="4" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="50" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="58" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="58" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="28" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="28" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="28" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="75" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="80" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="71" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="71" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="82" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="51" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="70" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="53" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="53" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="53" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="59" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="64" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="14" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="57" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="56" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="56" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="58" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="56" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="56" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="3" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="29" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="29" fillId="3" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="83" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="81" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="3" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="60" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="54" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="61" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="56" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="56" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="56" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="56" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="36" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="62" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="63" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="68" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="3" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="56" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="56" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="8" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="107" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="107" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="107" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="28" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="107" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="106" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="106" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="106" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="106" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="106" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="106" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="93" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="110" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="110" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="96" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="96" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="82" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="97" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="39" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="32" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="56" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="69" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="108" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="108" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="108" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="112" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="112" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="50" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="89" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="41" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="88" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="94" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="61" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="113" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="84" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="68" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="93" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="93" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="92" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="92" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="96" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="99" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="99" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="3" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="91" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="91" fillId="3" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="96" fillId="3" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="91" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="91" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="96" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="96" fillId="3" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="91" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="91" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="91" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="91" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="96" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="96" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="91" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="96" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="87" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="91" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="91" fillId="3" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="91" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="91" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="95" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="95" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="102" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="102" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="103" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="103" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="89" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="83" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="100" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="101" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="70" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="81" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="55" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="105" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="105" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="109" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="62" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="63" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="109" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="104" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="65" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="47" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="95" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="95" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="114" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="114" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="96" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="96" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="1" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="99" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="99" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="96" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="96" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="114" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="114" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="96" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="96" fillId="4" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4 2" xfId="3"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors/>
 </styleSheet>
 </file>
@@ -3277,17 +3277,17 @@
   </sheetPr>
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="37" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="37" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="37" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="37" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="1" thickBot="1">
       <c r="A1" s="95" t="n"/>
       <c r="B1" s="95" t="n"/>
       <c r="C1" s="95" t="n"/>
@@ -3316,7 +3316,7 @@
       <c r="Y1" s="95" t="n"/>
       <c r="Z1" s="37" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="2" thickTop="1">
       <c r="A2" s="348" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -3346,7 +3346,7 @@
       <c r="Y2" s="37" t="n"/>
       <c r="Z2" s="37" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="352" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -3378,7 +3378,7 @@
       <c r="Y3" s="38" t="n"/>
       <c r="Z3" s="37" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickTop="1">
       <c r="A4" s="352" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -3421,7 +3421,7 @@
       <c r="X4" s="349" t="n"/>
       <c r="Y4" s="350" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="352" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -3463,7 +3463,7 @@
       <c r="X5" s="361" t="n"/>
       <c r="Y5" s="362" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="352" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -3498,7 +3498,7 @@
       <c r="X6" s="366" t="n"/>
       <c r="Y6" s="367" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="368" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -3537,7 +3537,7 @@
       <c r="X7" s="364" t="n"/>
       <c r="Y7" s="373" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="374" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -3588,7 +3588,7 @@
       <c r="X8" s="379" t="n"/>
       <c r="Y8" s="381" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickBot="1" thickTop="1">
       <c r="A9" s="382" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -3639,7 +3639,7 @@
       <c r="X9" s="384" t="n"/>
       <c r="Y9" s="387" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="10" thickTop="1">
       <c r="A10" s="388" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -3694,7 +3694,7 @@
       <c r="X10" s="353" t="n"/>
       <c r="Y10" s="354" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="388" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -3749,7 +3749,7 @@
       <c r="X11" s="353" t="n"/>
       <c r="Y11" s="354" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="388" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -3800,7 +3800,7 @@
       <c r="X12" s="353" t="n"/>
       <c r="Y12" s="354" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="388" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -3851,7 +3851,7 @@
       <c r="X13" s="353" t="n"/>
       <c r="Y13" s="354" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="388" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -3902,7 +3902,7 @@
       <c r="X14" s="353" t="n"/>
       <c r="Y14" s="354" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="388" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -3953,7 +3953,7 @@
       <c r="X15" s="353" t="n"/>
       <c r="Y15" s="354" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="409" t="n"/>
       <c r="B16" s="353" t="n"/>
       <c r="C16" s="353" t="n"/>
@@ -3994,7 +3994,7 @@
       <c r="X16" s="353" t="n"/>
       <c r="Y16" s="354" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="409" t="n"/>
       <c r="B17" s="353" t="n"/>
       <c r="C17" s="353" t="n"/>
@@ -4035,7 +4035,7 @@
       <c r="X17" s="353" t="n"/>
       <c r="Y17" s="354" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="18">
       <c r="A18" s="409" t="n"/>
       <c r="B18" s="353" t="n"/>
       <c r="C18" s="353" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="X18" s="353" t="n"/>
       <c r="Y18" s="354" t="n"/>
     </row>
-    <row r="19" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="19" thickBot="1">
       <c r="A19" s="409" t="n"/>
       <c r="B19" s="353" t="n"/>
       <c r="C19" s="353" t="n"/>
@@ -4121,7 +4121,7 @@
       <c r="X19" s="369" t="n"/>
       <c r="Y19" s="370" t="n"/>
     </row>
-    <row r="20" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="20" thickBot="1" thickTop="1">
       <c r="A20" s="418" t="n"/>
       <c r="B20" s="369" t="n"/>
       <c r="C20" s="369" t="n"/>
@@ -4160,7 +4160,7 @@
       <c r="X20" s="421" t="n"/>
       <c r="Y20" s="424" t="n"/>
     </row>
-    <row r="21" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="21" thickBot="1" thickTop="1">
       <c r="A21" s="26" t="inlineStr">
         <is>
           <t>Note</t>
@@ -4211,7 +4211,7 @@
       <c r="X21" s="384" t="n"/>
       <c r="Y21" s="387" t="n"/>
     </row>
-    <row r="22" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="22" thickBot="1" thickTop="1">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>No</t>
@@ -4314,7 +4314,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="119" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="119" thickTop="1">
       <c r="A23" s="40" t="n">
         <v>1</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="119">
       <c r="A24" s="42">
         <f>A23 +1</f>
         <v/>
@@ -4465,7 +4465,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="119">
       <c r="A25" s="44">
         <f>A24 +1</f>
         <v/>
@@ -4541,7 +4541,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="119">
       <c r="A26" s="44">
         <f>A25 +1</f>
         <v/>
@@ -4617,7 +4617,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="119">
       <c r="A27" s="44">
         <f>A26 +1</f>
         <v/>
@@ -4693,7 +4693,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="119">
       <c r="A28" s="44">
         <f>A27 +1</f>
         <v/>
@@ -4769,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="119">
       <c r="A29" s="44">
         <f>A28 +1</f>
         <v/>
@@ -4845,7 +4845,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="119">
       <c r="A30" s="44">
         <f>A29 +1</f>
         <v/>
@@ -4921,7 +4921,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="119">
       <c r="A31" s="44">
         <f>A30 +1</f>
         <v/>
@@ -4997,7 +4997,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="119">
       <c r="A32" s="44">
         <f>A31 +1</f>
         <v/>
@@ -5073,7 +5073,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="119">
       <c r="A33" s="44">
         <f>A32 +1</f>
         <v/>
@@ -5149,7 +5149,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="119">
       <c r="A34" s="42">
         <f>A33 +1</f>
         <v/>
@@ -5225,7 +5225,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="119">
       <c r="A35" s="42">
         <f>A34 +1</f>
         <v/>
@@ -5301,7 +5301,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="119">
       <c r="A36" s="44">
         <f>A35 +1</f>
         <v/>
@@ -5377,7 +5377,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="119">
       <c r="A37" s="44">
         <f>A36 +1</f>
         <v/>
@@ -5453,7 +5453,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="119">
       <c r="A38" s="42">
         <f>A37 +1</f>
         <v/>
@@ -5529,7 +5529,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="119">
       <c r="A39" s="44">
         <f>A38 +1</f>
         <v/>
@@ -5605,7 +5605,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="40" s="119">
       <c r="A40" s="44">
         <f>A39 +1</f>
         <v/>
@@ -5681,7 +5681,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="41" s="119">
       <c r="A41" s="44">
         <f>A40 +1</f>
         <v/>
@@ -5757,7 +5757,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="19.9" customFormat="1" customHeight="1" s="119" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="42" s="119" thickBot="1">
       <c r="A42" s="45" t="n"/>
       <c r="B42" s="435" t="n"/>
       <c r="C42" s="369" t="n"/>
@@ -5814,7 +5814,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="43" thickTop="1"/>
   </sheetData>
   <mergeCells count="147">
     <mergeCell ref="W21:Y21"/>
@@ -5966,8 +5966,8 @@
     <mergeCell ref="A5:C5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="72" horizontalDpi="4294967293"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup horizontalDpi="4294967293" orientation="landscape" scale="72"/>
 </worksheet>
 </file>
 
@@ -5979,16 +5979,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="107" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="107" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="333" t="inlineStr">
         <is>
           <t>Survey Information Sheet</t>
@@ -6071,7 +6071,7 @@
       <c r="BX1" s="364" t="n"/>
       <c r="BY1" s="364" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="108" t="n"/>
       <c r="B2" s="109" t="n"/>
       <c r="C2" s="109" t="n"/>
@@ -6150,7 +6150,7 @@
       <c r="BX2" s="109" t="n"/>
       <c r="BY2" s="110" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="113" t="n"/>
@@ -6229,7 +6229,7 @@
       <c r="BX3" s="113" t="n"/>
       <c r="BY3" s="114" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="113" t="n"/>
       <c r="C4" s="113" t="n"/>
@@ -6308,7 +6308,7 @@
       <c r="BX4" s="113" t="n"/>
       <c r="BY4" s="114" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="115" t="n"/>
       <c r="AW5" s="116" t="n"/>
       <c r="AX5" s="116" t="n"/>
@@ -6326,7 +6326,7 @@
       <c r="BJ5" s="116" t="n"/>
       <c r="BY5" s="117" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="115" t="n"/>
       <c r="AW6" s="116" t="n"/>
       <c r="AX6" s="116" t="n"/>
@@ -6344,7 +6344,7 @@
       <c r="BJ6" s="116" t="n"/>
       <c r="BY6" s="117" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="115" t="n"/>
       <c r="V7" s="116" t="n"/>
       <c r="W7" s="116" t="n"/>
@@ -6378,7 +6378,7 @@
       <c r="BJ7" s="118" t="n"/>
       <c r="BY7" s="117" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="115" t="n"/>
       <c r="V8" s="116" t="n"/>
       <c r="W8" s="116" t="n"/>
@@ -6412,7 +6412,7 @@
       <c r="BJ8" s="118" t="n"/>
       <c r="BY8" s="117" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="115" t="n"/>
       <c r="V9" s="118" t="n"/>
       <c r="W9" s="118" t="n"/>
@@ -6432,7 +6432,7 @@
       <c r="AK9" s="118" t="n"/>
       <c r="BY9" s="117" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="115" t="n"/>
       <c r="V10" s="118" t="n"/>
       <c r="W10" s="118" t="n"/>
@@ -6452,7 +6452,7 @@
       <c r="AK10" s="118" t="n"/>
       <c r="BY10" s="117" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="115" t="n"/>
       <c r="V11" s="118" t="n"/>
       <c r="W11" s="118" t="n"/>
@@ -6472,35 +6472,35 @@
       <c r="AK11" s="118" t="n"/>
       <c r="BY11" s="117" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="115" t="n"/>
       <c r="BY12" s="117" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="115" t="n"/>
       <c r="BY13" s="117" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="115" t="n"/>
       <c r="BY14" s="117" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="115" t="n"/>
       <c r="BY15" s="117" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="115" t="n"/>
       <c r="BY16" s="117" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="115" t="n"/>
       <c r="BY17" s="117" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="115" t="n"/>
       <c r="BY18" s="117" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="115" t="n"/>
       <c r="BY19" s="117" t="n"/>
       <c r="CP19" s="119" t="n"/>
@@ -6523,7 +6523,7 @@
       <c r="DG19" s="119" t="n"/>
       <c r="DH19" s="119" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="115" t="n"/>
       <c r="BY20" s="117" t="n"/>
       <c r="CP20" s="119" t="n"/>
@@ -6546,7 +6546,7 @@
       <c r="DG20" s="119" t="n"/>
       <c r="DH20" s="119" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="115" t="n"/>
       <c r="BY21" s="117" t="n"/>
       <c r="CP21" s="119" t="n"/>
@@ -6569,7 +6569,7 @@
       <c r="DG21" s="119" t="n"/>
       <c r="DH21" s="119" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="115" t="n"/>
       <c r="BY22" s="117" t="n"/>
       <c r="CP22" s="119" t="n"/>
@@ -6592,7 +6592,7 @@
       <c r="DG22" s="119" t="n"/>
       <c r="DH22" s="119" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="115" t="n"/>
       <c r="AL23" s="116" t="n"/>
       <c r="AM23" s="116" t="n"/>
@@ -6625,7 +6625,7 @@
       <c r="DG23" s="119" t="n"/>
       <c r="DH23" s="119" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="115" t="n"/>
       <c r="J24" s="116" t="n"/>
       <c r="K24" s="116" t="n"/>
@@ -6653,7 +6653,7 @@
       <c r="AU24" s="116" t="n"/>
       <c r="BY24" s="117" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="115" t="n"/>
       <c r="J25" s="116" t="n"/>
       <c r="K25" s="116" t="n"/>
@@ -6681,7 +6681,7 @@
       <c r="AU25" s="118" t="n"/>
       <c r="BY25" s="117" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="115" t="n"/>
       <c r="BC26" s="116" t="n"/>
       <c r="BD26" s="116" t="n"/>
@@ -6699,7 +6699,7 @@
       <c r="BP26" s="116" t="n"/>
       <c r="BY26" s="117" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="115" t="n"/>
       <c r="B27" s="119" t="n"/>
       <c r="C27" s="119" t="n"/>
@@ -6741,7 +6741,7 @@
       <c r="BP27" s="116" t="n"/>
       <c r="BY27" s="117" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="115" t="n"/>
       <c r="B28" s="119" t="n"/>
       <c r="C28" s="119" t="n"/>
@@ -6783,7 +6783,7 @@
       <c r="BP28" s="116" t="n"/>
       <c r="BY28" s="117" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="115" t="n"/>
       <c r="B29" s="119" t="n"/>
       <c r="C29" s="119" t="n"/>
@@ -6825,7 +6825,7 @@
       <c r="BP29" s="116" t="n"/>
       <c r="BY29" s="117" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="115" t="n"/>
       <c r="B30" s="119" t="n"/>
       <c r="C30" s="119" t="n"/>
@@ -6867,7 +6867,7 @@
       <c r="BP30" s="118" t="n"/>
       <c r="BY30" s="117" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="115" t="n"/>
       <c r="B31" s="119" t="n"/>
       <c r="C31" s="119" t="n"/>
@@ -6909,7 +6909,7 @@
       <c r="BP31" s="118" t="n"/>
       <c r="BY31" s="117" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="115" t="n"/>
       <c r="B32" s="119" t="n"/>
       <c r="C32" s="119" t="n"/>
@@ -6937,7 +6937,7 @@
       <c r="Y32" s="121" t="n"/>
       <c r="BY32" s="117" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="115" t="n"/>
       <c r="B33" s="119" t="n"/>
       <c r="C33" s="119" t="n"/>
@@ -6998,7 +6998,7 @@
       <c r="BS33" s="123" t="n"/>
       <c r="BY33" s="117" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="115" t="n"/>
       <c r="B34" s="119" t="n"/>
       <c r="C34" s="119" t="n"/>
@@ -7059,7 +7059,7 @@
       <c r="BS34" s="123" t="n"/>
       <c r="BY34" s="117" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="115" t="n"/>
       <c r="B35" s="119" t="n"/>
       <c r="C35" s="119" t="n"/>
@@ -7068,7 +7068,7 @@
       <c r="F35" s="119" t="n"/>
       <c r="BY35" s="117" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="115" t="n"/>
       <c r="B36" s="119" t="n"/>
       <c r="C36" s="119" t="n"/>
@@ -7077,11 +7077,11 @@
       <c r="F36" s="119" t="n"/>
       <c r="BY36" s="117" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="37">
       <c r="A37" s="115" t="n"/>
       <c r="BY37" s="117" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="38">
       <c r="A38" s="124" t="n"/>
       <c r="B38" s="335" t="inlineStr">
         <is>
@@ -7090,15 +7090,15 @@
       </c>
       <c r="BY38" s="125" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="124" t="n"/>
       <c r="BY39" s="125" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="124" t="n"/>
       <c r="BY40" s="125" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="41" thickBot="1">
       <c r="A41" s="126" t="n"/>
       <c r="B41" s="364" t="n"/>
       <c r="C41" s="364" t="n"/>
@@ -7177,7 +7177,7 @@
       <c r="BX41" s="364" t="n"/>
       <c r="BY41" s="127" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="42" thickTop="1">
       <c r="A42" s="382" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -7238,7 +7238,7 @@
       <c r="BX42" s="129" t="n"/>
       <c r="BY42" s="125" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="43" thickBot="1">
       <c r="A43" s="388" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -7299,7 +7299,7 @@
       <c r="BX43" s="129" t="n"/>
       <c r="BY43" s="125" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="44" thickTop="1">
       <c r="A44" s="131" t="n"/>
       <c r="B44" s="131" t="n"/>
       <c r="C44" s="131" t="n"/>
@@ -7378,7 +7378,7 @@
       <c r="BX44" s="131" t="n"/>
       <c r="BY44" s="131" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="45">
       <c r="A45" s="132" t="n"/>
       <c r="B45" s="132" t="n"/>
       <c r="C45" s="132" t="n"/>
@@ -7457,7 +7457,7 @@
       <c r="BX45" s="132" t="n"/>
       <c r="BY45" s="132" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46">
       <c r="E46" s="133" t="n"/>
       <c r="F46" s="133" t="n"/>
       <c r="G46" s="133" t="n"/>
@@ -7528,7 +7528,7 @@
       <c r="BT46" s="133" t="n"/>
       <c r="BU46" s="135" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="47">
       <c r="E47" s="133" t="n"/>
       <c r="F47" s="133" t="n"/>
       <c r="G47" s="133" t="n"/>
@@ -7599,7 +7599,7 @@
       <c r="BT47" s="133" t="n"/>
       <c r="BU47" s="135" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="E48" s="133" t="n"/>
       <c r="F48" s="133" t="n"/>
       <c r="G48" s="133" t="n"/>
@@ -7670,7 +7670,7 @@
       <c r="BT48" s="133" t="n"/>
       <c r="BU48" s="135" t="n"/>
     </row>
-    <row r="49" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="49">
       <c r="E49" s="133" t="n"/>
       <c r="F49" s="133" t="n"/>
       <c r="G49" s="133" t="n"/>
@@ -7741,11 +7741,11 @@
       <c r="BT49" s="133" t="n"/>
       <c r="BU49" s="135" t="n"/>
     </row>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="119" t="n"/>
       <c r="B51" s="119" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="119" t="n"/>
       <c r="B52" s="119" t="n"/>
     </row>
@@ -7759,8 +7759,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -7780,16 +7780,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="107" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="107" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="333" t="inlineStr">
         <is>
           <t>Survey Information Sheet</t>
@@ -7872,7 +7872,7 @@
       <c r="BX1" s="364" t="n"/>
       <c r="BY1" s="364" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="108" t="n"/>
       <c r="B2" s="109" t="n"/>
       <c r="C2" s="109" t="n"/>
@@ -7951,7 +7951,7 @@
       <c r="BX2" s="109" t="n"/>
       <c r="BY2" s="110" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="113" t="n"/>
@@ -8030,7 +8030,7 @@
       <c r="BX3" s="113" t="n"/>
       <c r="BY3" s="114" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="113" t="n"/>
       <c r="C4" s="113" t="n"/>
@@ -8109,7 +8109,7 @@
       <c r="BX4" s="113" t="n"/>
       <c r="BY4" s="114" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="115" t="n"/>
       <c r="AW5" s="116" t="n"/>
       <c r="AX5" s="116" t="n"/>
@@ -8127,7 +8127,7 @@
       <c r="BJ5" s="116" t="n"/>
       <c r="BY5" s="117" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="115" t="n"/>
       <c r="AW6" s="116" t="n"/>
       <c r="AX6" s="116" t="n"/>
@@ -8145,7 +8145,7 @@
       <c r="BJ6" s="116" t="n"/>
       <c r="BY6" s="117" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="115" t="n"/>
       <c r="V7" s="116" t="n"/>
       <c r="W7" s="116" t="n"/>
@@ -8179,7 +8179,7 @@
       <c r="BJ7" s="118" t="n"/>
       <c r="BY7" s="117" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="115" t="n"/>
       <c r="V8" s="116" t="n"/>
       <c r="W8" s="116" t="n"/>
@@ -8213,7 +8213,7 @@
       <c r="BJ8" s="118" t="n"/>
       <c r="BY8" s="117" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="115" t="n"/>
       <c r="V9" s="118" t="n"/>
       <c r="W9" s="118" t="n"/>
@@ -8233,7 +8233,7 @@
       <c r="AK9" s="118" t="n"/>
       <c r="BY9" s="117" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="115" t="n"/>
       <c r="V10" s="118" t="n"/>
       <c r="W10" s="118" t="n"/>
@@ -8253,7 +8253,7 @@
       <c r="AK10" s="118" t="n"/>
       <c r="BY10" s="117" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="115" t="n"/>
       <c r="V11" s="118" t="n"/>
       <c r="W11" s="118" t="n"/>
@@ -8273,35 +8273,35 @@
       <c r="AK11" s="118" t="n"/>
       <c r="BY11" s="117" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="115" t="n"/>
       <c r="BY12" s="117" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="115" t="n"/>
       <c r="BY13" s="117" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="115" t="n"/>
       <c r="BY14" s="117" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="115" t="n"/>
       <c r="BY15" s="117" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="115" t="n"/>
       <c r="BY16" s="117" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="115" t="n"/>
       <c r="BY17" s="117" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="115" t="n"/>
       <c r="BY18" s="117" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="115" t="n"/>
       <c r="BY19" s="117" t="n"/>
       <c r="CP19" s="119" t="n"/>
@@ -8324,7 +8324,7 @@
       <c r="DG19" s="119" t="n"/>
       <c r="DH19" s="119" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="115" t="n"/>
       <c r="BY20" s="117" t="n"/>
       <c r="CP20" s="119" t="n"/>
@@ -8347,7 +8347,7 @@
       <c r="DG20" s="119" t="n"/>
       <c r="DH20" s="119" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="115" t="n"/>
       <c r="BY21" s="117" t="n"/>
       <c r="CP21" s="119" t="n"/>
@@ -8370,7 +8370,7 @@
       <c r="DG21" s="119" t="n"/>
       <c r="DH21" s="119" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="115" t="n"/>
       <c r="BY22" s="117" t="n"/>
       <c r="CP22" s="119" t="n"/>
@@ -8393,7 +8393,7 @@
       <c r="DG22" s="119" t="n"/>
       <c r="DH22" s="119" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="115" t="n"/>
       <c r="AL23" s="116" t="n"/>
       <c r="AM23" s="116" t="n"/>
@@ -8426,7 +8426,7 @@
       <c r="DG23" s="119" t="n"/>
       <c r="DH23" s="119" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="115" t="n"/>
       <c r="J24" s="116" t="n"/>
       <c r="K24" s="116" t="n"/>
@@ -8454,7 +8454,7 @@
       <c r="AU24" s="116" t="n"/>
       <c r="BY24" s="117" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="115" t="n"/>
       <c r="J25" s="116" t="n"/>
       <c r="K25" s="116" t="n"/>
@@ -8482,7 +8482,7 @@
       <c r="AU25" s="118" t="n"/>
       <c r="BY25" s="117" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="115" t="n"/>
       <c r="BC26" s="116" t="n"/>
       <c r="BD26" s="116" t="n"/>
@@ -8500,7 +8500,7 @@
       <c r="BP26" s="116" t="n"/>
       <c r="BY26" s="117" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="115" t="n"/>
       <c r="B27" s="119" t="n"/>
       <c r="C27" s="119" t="n"/>
@@ -8542,7 +8542,7 @@
       <c r="BP27" s="116" t="n"/>
       <c r="BY27" s="117" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="115" t="n"/>
       <c r="B28" s="119" t="n"/>
       <c r="C28" s="119" t="n"/>
@@ -8584,7 +8584,7 @@
       <c r="BP28" s="116" t="n"/>
       <c r="BY28" s="117" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="115" t="n"/>
       <c r="B29" s="119" t="n"/>
       <c r="C29" s="119" t="n"/>
@@ -8626,7 +8626,7 @@
       <c r="BP29" s="116" t="n"/>
       <c r="BY29" s="117" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="115" t="n"/>
       <c r="B30" s="119" t="n"/>
       <c r="C30" s="119" t="n"/>
@@ -8668,7 +8668,7 @@
       <c r="BP30" s="118" t="n"/>
       <c r="BY30" s="117" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="115" t="n"/>
       <c r="B31" s="119" t="n"/>
       <c r="C31" s="119" t="n"/>
@@ -8710,7 +8710,7 @@
       <c r="BP31" s="118" t="n"/>
       <c r="BY31" s="117" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="115" t="n"/>
       <c r="B32" s="119" t="n"/>
       <c r="C32" s="119" t="n"/>
@@ -8738,7 +8738,7 @@
       <c r="Y32" s="121" t="n"/>
       <c r="BY32" s="117" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="115" t="n"/>
       <c r="B33" s="119" t="n"/>
       <c r="C33" s="119" t="n"/>
@@ -8799,7 +8799,7 @@
       <c r="BS33" s="123" t="n"/>
       <c r="BY33" s="117" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="115" t="n"/>
       <c r="B34" s="119" t="n"/>
       <c r="C34" s="119" t="n"/>
@@ -8860,7 +8860,7 @@
       <c r="BS34" s="123" t="n"/>
       <c r="BY34" s="117" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="115" t="n"/>
       <c r="B35" s="119" t="n"/>
       <c r="C35" s="119" t="n"/>
@@ -8869,7 +8869,7 @@
       <c r="F35" s="119" t="n"/>
       <c r="BY35" s="117" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="115" t="n"/>
       <c r="B36" s="119" t="n"/>
       <c r="C36" s="119" t="n"/>
@@ -8878,11 +8878,11 @@
       <c r="F36" s="119" t="n"/>
       <c r="BY36" s="117" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="37">
       <c r="A37" s="115" t="n"/>
       <c r="BY37" s="117" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="38">
       <c r="A38" s="124" t="n"/>
       <c r="B38" s="335" t="inlineStr">
         <is>
@@ -8891,15 +8891,15 @@
       </c>
       <c r="BY38" s="125" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="124" t="n"/>
       <c r="BY39" s="125" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="124" t="n"/>
       <c r="BY40" s="125" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="41" thickBot="1">
       <c r="A41" s="126" t="n"/>
       <c r="B41" s="364" t="n"/>
       <c r="C41" s="364" t="n"/>
@@ -8978,7 +8978,7 @@
       <c r="BX41" s="364" t="n"/>
       <c r="BY41" s="127" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="42" thickTop="1">
       <c r="A42" s="382" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -9039,7 +9039,7 @@
       <c r="BX42" s="129" t="n"/>
       <c r="BY42" s="125" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="43" thickBot="1">
       <c r="A43" s="388" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -9100,7 +9100,7 @@
       <c r="BX43" s="129" t="n"/>
       <c r="BY43" s="125" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="44" thickTop="1">
       <c r="A44" s="131" t="n"/>
       <c r="B44" s="131" t="n"/>
       <c r="C44" s="131" t="n"/>
@@ -9179,7 +9179,7 @@
       <c r="BX44" s="131" t="n"/>
       <c r="BY44" s="131" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="45">
       <c r="A45" s="132" t="n"/>
       <c r="B45" s="132" t="n"/>
       <c r="C45" s="132" t="n"/>
@@ -9258,7 +9258,7 @@
       <c r="BX45" s="132" t="n"/>
       <c r="BY45" s="132" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46">
       <c r="E46" s="133" t="n"/>
       <c r="F46" s="133" t="n"/>
       <c r="G46" s="133" t="n"/>
@@ -9329,7 +9329,7 @@
       <c r="BT46" s="133" t="n"/>
       <c r="BU46" s="135" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="47">
       <c r="E47" s="133" t="n"/>
       <c r="F47" s="133" t="n"/>
       <c r="G47" s="133" t="n"/>
@@ -9400,7 +9400,7 @@
       <c r="BT47" s="133" t="n"/>
       <c r="BU47" s="135" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="E48" s="133" t="n"/>
       <c r="F48" s="133" t="n"/>
       <c r="G48" s="133" t="n"/>
@@ -9471,7 +9471,7 @@
       <c r="BT48" s="133" t="n"/>
       <c r="BU48" s="135" t="n"/>
     </row>
-    <row r="49" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="49">
       <c r="E49" s="133" t="n"/>
       <c r="F49" s="133" t="n"/>
       <c r="G49" s="133" t="n"/>
@@ -9542,11 +9542,11 @@
       <c r="BT49" s="133" t="n"/>
       <c r="BU49" s="135" t="n"/>
     </row>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="119" t="n"/>
       <c r="B51" s="119" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="119" t="n"/>
       <c r="B52" s="119" t="n"/>
     </row>
@@ -9560,8 +9560,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -9581,16 +9581,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="CH37" sqref="CH37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="107" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="107" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="333" t="inlineStr">
         <is>
           <t>Survey Information Sheet</t>
@@ -9673,7 +9673,7 @@
       <c r="BX1" s="364" t="n"/>
       <c r="BY1" s="364" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="108" t="n"/>
       <c r="B2" s="109" t="n"/>
       <c r="C2" s="109" t="n"/>
@@ -9752,7 +9752,7 @@
       <c r="BX2" s="109" t="n"/>
       <c r="BY2" s="110" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="113" t="n"/>
@@ -9831,7 +9831,7 @@
       <c r="BX3" s="113" t="n"/>
       <c r="BY3" s="114" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="113" t="n"/>
       <c r="C4" s="113" t="n"/>
@@ -9910,7 +9910,7 @@
       <c r="BX4" s="113" t="n"/>
       <c r="BY4" s="114" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="115" t="n"/>
       <c r="AW5" s="116" t="n"/>
       <c r="AX5" s="116" t="n"/>
@@ -9928,7 +9928,7 @@
       <c r="BJ5" s="116" t="n"/>
       <c r="BY5" s="117" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="115" t="n"/>
       <c r="AW6" s="116" t="n"/>
       <c r="AX6" s="116" t="n"/>
@@ -9946,7 +9946,7 @@
       <c r="BJ6" s="116" t="n"/>
       <c r="BY6" s="117" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="115" t="n"/>
       <c r="V7" s="116" t="n"/>
       <c r="W7" s="116" t="n"/>
@@ -9980,7 +9980,7 @@
       <c r="BJ7" s="118" t="n"/>
       <c r="BY7" s="117" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="115" t="n"/>
       <c r="V8" s="116" t="n"/>
       <c r="W8" s="116" t="n"/>
@@ -10014,7 +10014,7 @@
       <c r="BJ8" s="118" t="n"/>
       <c r="BY8" s="117" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="115" t="n"/>
       <c r="V9" s="118" t="n"/>
       <c r="W9" s="118" t="n"/>
@@ -10034,7 +10034,7 @@
       <c r="AK9" s="118" t="n"/>
       <c r="BY9" s="117" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="115" t="n"/>
       <c r="V10" s="118" t="n"/>
       <c r="W10" s="118" t="n"/>
@@ -10054,7 +10054,7 @@
       <c r="AK10" s="118" t="n"/>
       <c r="BY10" s="117" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="115" t="n"/>
       <c r="V11" s="118" t="n"/>
       <c r="W11" s="118" t="n"/>
@@ -10074,35 +10074,35 @@
       <c r="AK11" s="118" t="n"/>
       <c r="BY11" s="117" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="115" t="n"/>
       <c r="BY12" s="117" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="115" t="n"/>
       <c r="BY13" s="117" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="115" t="n"/>
       <c r="BY14" s="117" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="115" t="n"/>
       <c r="BY15" s="117" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="115" t="n"/>
       <c r="BY16" s="117" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="115" t="n"/>
       <c r="BY17" s="117" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="115" t="n"/>
       <c r="BY18" s="117" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="115" t="n"/>
       <c r="BY19" s="117" t="n"/>
       <c r="CP19" s="119" t="n"/>
@@ -10125,7 +10125,7 @@
       <c r="DG19" s="119" t="n"/>
       <c r="DH19" s="119" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="115" t="n"/>
       <c r="BY20" s="117" t="n"/>
       <c r="CP20" s="119" t="n"/>
@@ -10148,7 +10148,7 @@
       <c r="DG20" s="119" t="n"/>
       <c r="DH20" s="119" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="115" t="n"/>
       <c r="BY21" s="117" t="n"/>
       <c r="CP21" s="119" t="n"/>
@@ -10171,7 +10171,7 @@
       <c r="DG21" s="119" t="n"/>
       <c r="DH21" s="119" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="115" t="n"/>
       <c r="BY22" s="117" t="n"/>
       <c r="CP22" s="119" t="n"/>
@@ -10194,7 +10194,7 @@
       <c r="DG22" s="119" t="n"/>
       <c r="DH22" s="119" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="115" t="n"/>
       <c r="AL23" s="116" t="n"/>
       <c r="AM23" s="116" t="n"/>
@@ -10227,7 +10227,7 @@
       <c r="DG23" s="119" t="n"/>
       <c r="DH23" s="119" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="115" t="n"/>
       <c r="J24" s="116" t="n"/>
       <c r="K24" s="116" t="n"/>
@@ -10255,7 +10255,7 @@
       <c r="AU24" s="116" t="n"/>
       <c r="BY24" s="117" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="115" t="n"/>
       <c r="J25" s="116" t="n"/>
       <c r="K25" s="116" t="n"/>
@@ -10283,7 +10283,7 @@
       <c r="AU25" s="118" t="n"/>
       <c r="BY25" s="117" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="115" t="n"/>
       <c r="BC26" s="116" t="n"/>
       <c r="BD26" s="116" t="n"/>
@@ -10301,7 +10301,7 @@
       <c r="BP26" s="116" t="n"/>
       <c r="BY26" s="117" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="115" t="n"/>
       <c r="B27" s="119" t="n"/>
       <c r="C27" s="119" t="n"/>
@@ -10343,7 +10343,7 @@
       <c r="BP27" s="116" t="n"/>
       <c r="BY27" s="117" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="115" t="n"/>
       <c r="B28" s="119" t="n"/>
       <c r="C28" s="119" t="n"/>
@@ -10385,7 +10385,7 @@
       <c r="BP28" s="116" t="n"/>
       <c r="BY28" s="117" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="115" t="n"/>
       <c r="B29" s="119" t="n"/>
       <c r="C29" s="119" t="n"/>
@@ -10427,7 +10427,7 @@
       <c r="BP29" s="116" t="n"/>
       <c r="BY29" s="117" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="115" t="n"/>
       <c r="B30" s="119" t="n"/>
       <c r="C30" s="119" t="n"/>
@@ -10469,7 +10469,7 @@
       <c r="BP30" s="118" t="n"/>
       <c r="BY30" s="117" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="115" t="n"/>
       <c r="B31" s="119" t="n"/>
       <c r="C31" s="119" t="n"/>
@@ -10511,7 +10511,7 @@
       <c r="BP31" s="118" t="n"/>
       <c r="BY31" s="117" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="115" t="n"/>
       <c r="B32" s="119" t="n"/>
       <c r="C32" s="119" t="n"/>
@@ -10539,7 +10539,7 @@
       <c r="Y32" s="121" t="n"/>
       <c r="BY32" s="117" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="115" t="n"/>
       <c r="B33" s="119" t="n"/>
       <c r="C33" s="119" t="n"/>
@@ -10600,7 +10600,7 @@
       <c r="BS33" s="123" t="n"/>
       <c r="BY33" s="117" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="115" t="n"/>
       <c r="B34" s="119" t="n"/>
       <c r="C34" s="119" t="n"/>
@@ -10661,7 +10661,7 @@
       <c r="BS34" s="123" t="n"/>
       <c r="BY34" s="117" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="115" t="n"/>
       <c r="B35" s="119" t="n"/>
       <c r="C35" s="119" t="n"/>
@@ -10670,7 +10670,7 @@
       <c r="F35" s="119" t="n"/>
       <c r="BY35" s="117" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="115" t="n"/>
       <c r="B36" s="119" t="n"/>
       <c r="C36" s="119" t="n"/>
@@ -10679,11 +10679,11 @@
       <c r="F36" s="119" t="n"/>
       <c r="BY36" s="117" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="37">
       <c r="A37" s="115" t="n"/>
       <c r="BY37" s="117" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="38">
       <c r="A38" s="124" t="n"/>
       <c r="B38" s="335" t="inlineStr">
         <is>
@@ -10692,15 +10692,15 @@
       </c>
       <c r="BY38" s="125" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="124" t="n"/>
       <c r="BY39" s="125" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="124" t="n"/>
       <c r="BY40" s="125" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="41" thickBot="1">
       <c r="A41" s="126" t="n"/>
       <c r="B41" s="364" t="n"/>
       <c r="C41" s="364" t="n"/>
@@ -10779,7 +10779,7 @@
       <c r="BX41" s="364" t="n"/>
       <c r="BY41" s="127" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="42" thickTop="1">
       <c r="A42" s="382" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -10840,7 +10840,7 @@
       <c r="BX42" s="129" t="n"/>
       <c r="BY42" s="125" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="43" thickBot="1">
       <c r="A43" s="388" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -10901,7 +10901,7 @@
       <c r="BX43" s="129" t="n"/>
       <c r="BY43" s="125" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="44" thickTop="1">
       <c r="A44" s="131" t="n"/>
       <c r="B44" s="131" t="n"/>
       <c r="C44" s="131" t="n"/>
@@ -10980,7 +10980,7 @@
       <c r="BX44" s="131" t="n"/>
       <c r="BY44" s="131" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="45">
       <c r="A45" s="132" t="n"/>
       <c r="B45" s="132" t="n"/>
       <c r="C45" s="132" t="n"/>
@@ -11059,7 +11059,7 @@
       <c r="BX45" s="132" t="n"/>
       <c r="BY45" s="132" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46">
       <c r="E46" s="133" t="n"/>
       <c r="F46" s="133" t="n"/>
       <c r="G46" s="133" t="n"/>
@@ -11130,7 +11130,7 @@
       <c r="BT46" s="133" t="n"/>
       <c r="BU46" s="135" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="47">
       <c r="E47" s="133" t="n"/>
       <c r="F47" s="133" t="n"/>
       <c r="G47" s="133" t="n"/>
@@ -11201,7 +11201,7 @@
       <c r="BT47" s="133" t="n"/>
       <c r="BU47" s="135" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="E48" s="133" t="n"/>
       <c r="F48" s="133" t="n"/>
       <c r="G48" s="133" t="n"/>
@@ -11272,7 +11272,7 @@
       <c r="BT48" s="133" t="n"/>
       <c r="BU48" s="135" t="n"/>
     </row>
-    <row r="49" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="49">
       <c r="E49" s="133" t="n"/>
       <c r="F49" s="133" t="n"/>
       <c r="G49" s="133" t="n"/>
@@ -11343,11 +11343,11 @@
       <c r="BT49" s="133" t="n"/>
       <c r="BU49" s="135" t="n"/>
     </row>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="119" t="n"/>
       <c r="B51" s="119" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="119" t="n"/>
       <c r="B52" s="119" t="n"/>
     </row>
@@ -11361,8 +11361,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -11382,18 +11382,18 @@
   </sheetPr>
   <dimension ref="A1:DQ49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="107" min="1" max="25"/>
-    <col width="1.85546875" customWidth="1" style="107" min="26" max="26"/>
-    <col width="1.7109375" customWidth="1" style="107" min="27" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="107" width="1.7109375"/>
+    <col customWidth="1" max="26" min="26" style="107" width="1.85546875"/>
+    <col customWidth="1" max="16384" min="27" style="107" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="307" t="inlineStr">
         <is>
           <t>SURVEY INFORMATION SHEETS</t>
@@ -11476,7 +11476,7 @@
       <c r="BX1" s="364" t="n"/>
       <c r="BY1" s="364" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="108" t="n"/>
       <c r="B2" s="109" t="n"/>
       <c r="C2" s="109" t="n"/>
@@ -11555,7 +11555,7 @@
       <c r="BX2" s="109" t="n"/>
       <c r="BY2" s="110" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="113" t="n"/>
@@ -11634,7 +11634,7 @@
       <c r="BX3" s="113" t="n"/>
       <c r="BY3" s="114" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="113" t="n"/>
       <c r="C4" s="113" t="n"/>
@@ -11713,7 +11713,7 @@
       <c r="BX4" s="113" t="n"/>
       <c r="BY4" s="114" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="115" t="n"/>
       <c r="B5" s="107" t="n"/>
       <c r="C5" s="107" t="n"/>
@@ -11792,7 +11792,7 @@
       <c r="BX5" s="107" t="n"/>
       <c r="BY5" s="117" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="115" t="n"/>
       <c r="B6" s="107" t="n"/>
       <c r="C6" s="107" t="n"/>
@@ -11871,7 +11871,7 @@
       <c r="BX6" s="107" t="n"/>
       <c r="BY6" s="117" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="115" t="n"/>
       <c r="B7" s="107" t="n"/>
       <c r="C7" s="107" t="n"/>
@@ -11950,7 +11950,7 @@
       <c r="BX7" s="107" t="n"/>
       <c r="BY7" s="117" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="115" t="n"/>
       <c r="B8" s="107" t="n"/>
       <c r="C8" s="107" t="n"/>
@@ -12029,7 +12029,7 @@
       <c r="BX8" s="107" t="n"/>
       <c r="BY8" s="117" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="115" t="n"/>
       <c r="B9" s="107" t="n"/>
       <c r="C9" s="107" t="n"/>
@@ -12108,7 +12108,7 @@
       <c r="BX9" s="107" t="n"/>
       <c r="BY9" s="117" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="115" t="n"/>
       <c r="B10" s="107" t="n"/>
       <c r="C10" s="107" t="n"/>
@@ -12187,7 +12187,7 @@
       <c r="BX10" s="107" t="n"/>
       <c r="BY10" s="117" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="115" t="n"/>
       <c r="B11" s="107" t="n"/>
       <c r="C11" s="107" t="n"/>
@@ -12266,7 +12266,7 @@
       <c r="BX11" s="107" t="n"/>
       <c r="BY11" s="117" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="115" t="n"/>
       <c r="B12" s="107" t="n"/>
       <c r="C12" s="107" t="n"/>
@@ -12345,7 +12345,7 @@
       <c r="BX12" s="107" t="n"/>
       <c r="BY12" s="117" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="115" t="n"/>
       <c r="B13" s="107" t="n"/>
       <c r="C13" s="107" t="n"/>
@@ -12424,7 +12424,7 @@
       <c r="BX13" s="107" t="n"/>
       <c r="BY13" s="117" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="115" t="n"/>
       <c r="B14" s="107" t="n"/>
       <c r="C14" s="107" t="n"/>
@@ -12503,7 +12503,7 @@
       <c r="BX14" s="107" t="n"/>
       <c r="BY14" s="117" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="115" t="n"/>
       <c r="B15" s="107" t="n"/>
       <c r="C15" s="107" t="n"/>
@@ -12582,7 +12582,7 @@
       <c r="BX15" s="107" t="n"/>
       <c r="BY15" s="117" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="115" t="n"/>
       <c r="B16" s="107" t="n"/>
       <c r="C16" s="107" t="n"/>
@@ -12661,7 +12661,7 @@
       <c r="BX16" s="107" t="n"/>
       <c r="BY16" s="117" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="115" t="n"/>
       <c r="B17" s="107" t="n"/>
       <c r="C17" s="107" t="n"/>
@@ -12759,7 +12759,7 @@
       <c r="DP17" s="119" t="n"/>
       <c r="DQ17" s="119" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="115" t="n"/>
       <c r="B18" s="107" t="n"/>
       <c r="C18" s="107" t="n"/>
@@ -12857,7 +12857,7 @@
       <c r="DP18" s="119" t="n"/>
       <c r="DQ18" s="119" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="115" t="n"/>
       <c r="B19" s="107" t="n"/>
       <c r="C19" s="107" t="n"/>
@@ -12955,7 +12955,7 @@
       <c r="DP19" s="119" t="n"/>
       <c r="DQ19" s="119" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="115" t="n"/>
       <c r="B20" s="107" t="n"/>
       <c r="C20" s="107" t="n"/>
@@ -13053,7 +13053,7 @@
       <c r="DP20" s="119" t="n"/>
       <c r="DQ20" s="119" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="115" t="n"/>
       <c r="B21" s="107" t="n"/>
       <c r="C21" s="107" t="n"/>
@@ -13151,7 +13151,7 @@
       <c r="DP21" s="119" t="n"/>
       <c r="DQ21" s="119" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="115" t="n"/>
       <c r="B22" s="107" t="n"/>
       <c r="C22" s="107" t="n"/>
@@ -13249,7 +13249,7 @@
       <c r="DP22" s="119" t="n"/>
       <c r="DQ22" s="119" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="115" t="n"/>
       <c r="B23" s="107" t="n"/>
       <c r="C23" s="107" t="n"/>
@@ -13347,7 +13347,7 @@
       <c r="DP23" s="119" t="n"/>
       <c r="DQ23" s="119" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="115" t="n"/>
       <c r="B24" s="107" t="n"/>
       <c r="C24" s="107" t="n"/>
@@ -13445,7 +13445,7 @@
       <c r="DP24" s="119" t="n"/>
       <c r="DQ24" s="119" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="115" t="n"/>
       <c r="B25" s="107" t="n"/>
       <c r="C25" s="107" t="n"/>
@@ -13543,7 +13543,7 @@
       <c r="DP25" s="119" t="n"/>
       <c r="DQ25" s="119" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="115" t="n"/>
       <c r="B26" s="107" t="n"/>
       <c r="C26" s="107" t="n"/>
@@ -13622,7 +13622,7 @@
       <c r="BX26" s="107" t="n"/>
       <c r="BY26" s="117" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="115" t="n"/>
       <c r="B27" s="119" t="n"/>
       <c r="C27" s="119" t="n"/>
@@ -13701,7 +13701,7 @@
       <c r="BX27" s="107" t="n"/>
       <c r="BY27" s="117" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="115" t="n"/>
       <c r="B28" s="119" t="n"/>
       <c r="C28" s="119" t="n"/>
@@ -13780,7 +13780,7 @@
       <c r="BX28" s="107" t="n"/>
       <c r="BY28" s="117" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="115" t="n"/>
       <c r="B29" s="119" t="n"/>
       <c r="C29" s="119" t="n"/>
@@ -13859,7 +13859,7 @@
       <c r="BX29" s="107" t="n"/>
       <c r="BY29" s="117" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="115" t="n"/>
       <c r="B30" s="119" t="n"/>
       <c r="C30" s="119" t="n"/>
@@ -13938,7 +13938,7 @@
       <c r="BX30" s="107" t="n"/>
       <c r="BY30" s="117" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="115" t="n"/>
       <c r="B31" s="119" t="n"/>
       <c r="C31" s="119" t="n"/>
@@ -14017,7 +14017,7 @@
       <c r="BX31" s="107" t="n"/>
       <c r="BY31" s="117" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="115" t="n"/>
       <c r="B32" s="119" t="n"/>
       <c r="C32" s="119" t="n"/>
@@ -14096,7 +14096,7 @@
       <c r="BX32" s="107" t="n"/>
       <c r="BY32" s="117" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="115" t="n"/>
       <c r="B33" s="119" t="n"/>
       <c r="C33" s="119" t="n"/>
@@ -14175,7 +14175,7 @@
       <c r="BX33" s="107" t="n"/>
       <c r="BY33" s="117" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="115" t="n"/>
       <c r="B34" s="119" t="n"/>
       <c r="C34" s="119" t="n"/>
@@ -14254,7 +14254,7 @@
       <c r="BX34" s="107" t="n"/>
       <c r="BY34" s="117" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="115" t="n"/>
       <c r="B35" s="119" t="n"/>
       <c r="C35" s="119" t="n"/>
@@ -14333,7 +14333,7 @@
       <c r="BX35" s="107" t="n"/>
       <c r="BY35" s="117" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="115" t="n"/>
       <c r="B36" s="119" t="n"/>
       <c r="C36" s="119" t="n"/>
@@ -14412,7 +14412,7 @@
       <c r="BX36" s="107" t="n"/>
       <c r="BY36" s="117" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="37">
       <c r="A37" s="115" t="n"/>
       <c r="B37" s="107" t="n"/>
       <c r="C37" s="107" t="n"/>
@@ -14491,7 +14491,7 @@
       <c r="BX37" s="107" t="n"/>
       <c r="BY37" s="117" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="38">
       <c r="A38" s="124" t="n"/>
       <c r="B38" s="132" t="n"/>
       <c r="C38" s="132" t="n"/>
@@ -14570,7 +14570,7 @@
       <c r="BX38" s="37" t="n"/>
       <c r="BY38" s="125" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="124" t="n"/>
       <c r="B39" s="132" t="n"/>
       <c r="C39" s="132" t="n"/>
@@ -14649,7 +14649,7 @@
       <c r="BX39" s="37" t="n"/>
       <c r="BY39" s="125" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="124" t="n"/>
       <c r="B40" s="132" t="n"/>
       <c r="C40" s="132" t="n"/>
@@ -14731,7 +14731,7 @@
       <c r="CA40" s="107" t="n"/>
       <c r="CB40" s="107" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="41" thickBot="1">
       <c r="A41" s="126" t="n"/>
       <c r="B41" s="67" t="n"/>
       <c r="C41" s="67" t="n"/>
@@ -14815,7 +14815,7 @@
       <c r="CH41" s="107" t="n"/>
       <c r="CI41" s="107" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="42" thickTop="1">
       <c r="A42" s="382" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -14929,7 +14929,7 @@
       <c r="DD42" s="107" t="n"/>
       <c r="DE42" s="107" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="43" thickBot="1">
       <c r="A43" s="388" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -15043,7 +15043,7 @@
       <c r="DD43" s="107" t="n"/>
       <c r="DE43" s="107" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="44" thickTop="1">
       <c r="A44" s="131" t="n"/>
       <c r="B44" s="131" t="n"/>
       <c r="C44" s="131" t="n"/>
@@ -15145,7 +15145,7 @@
       <c r="CZ44" s="107" t="n"/>
       <c r="DA44" s="107" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="45">
       <c r="A45" s="107" t="n"/>
       <c r="B45" s="107" t="n"/>
       <c r="C45" s="107" t="n"/>
@@ -15154,7 +15154,7 @@
       <c r="F45" s="107" t="n"/>
       <c r="G45" s="107" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46">
       <c r="A46" s="119" t="n"/>
       <c r="B46" s="119" t="n"/>
       <c r="C46" s="107" t="n"/>
@@ -15163,7 +15163,7 @@
       <c r="F46" s="107" t="n"/>
       <c r="G46" s="107" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="47">
       <c r="A47" s="119" t="n"/>
       <c r="B47" s="119" t="n"/>
       <c r="C47" s="107" t="n"/>
@@ -15172,7 +15172,7 @@
       <c r="F47" s="107" t="n"/>
       <c r="G47" s="107" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="A48" s="107" t="n"/>
       <c r="B48" s="107" t="n"/>
       <c r="C48" s="107" t="n"/>
@@ -15191,8 +15191,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -15212,17 +15212,17 @@
   </sheetPr>
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="37" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="37" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="37" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="37" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="1" thickBot="1">
       <c r="A1" s="95" t="n"/>
       <c r="B1" s="95" t="n"/>
       <c r="C1" s="95" t="n"/>
@@ -15251,7 +15251,7 @@
       <c r="Y1" s="95" t="n"/>
       <c r="Z1" s="37" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="2" thickTop="1">
       <c r="A2" s="348" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -15281,7 +15281,7 @@
       <c r="Y2" s="37" t="n"/>
       <c r="Z2" s="37" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="352" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -15313,7 +15313,7 @@
       <c r="Y3" s="38" t="n"/>
       <c r="Z3" s="37" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickTop="1">
       <c r="A4" s="352" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -15356,7 +15356,7 @@
       <c r="X4" s="349" t="n"/>
       <c r="Y4" s="350" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="352" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -15398,7 +15398,7 @@
       <c r="X5" s="361" t="n"/>
       <c r="Y5" s="362" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="352" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -15431,7 +15431,7 @@
       <c r="X6" s="366" t="n"/>
       <c r="Y6" s="367" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="368" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -15470,7 +15470,7 @@
       <c r="X7" s="364" t="n"/>
       <c r="Y7" s="373" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="374" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -15521,7 +15521,7 @@
       <c r="X8" s="379" t="n"/>
       <c r="Y8" s="381" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickBot="1" thickTop="1">
       <c r="A9" s="382" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -15572,7 +15572,7 @@
       <c r="X9" s="384" t="n"/>
       <c r="Y9" s="387" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="10" thickTop="1">
       <c r="A10" s="388" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -15623,7 +15623,7 @@
       <c r="X10" s="353" t="n"/>
       <c r="Y10" s="354" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="388" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -15676,7 +15676,7 @@
       <c r="X11" s="353" t="n"/>
       <c r="Y11" s="354" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="388" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -15725,7 +15725,7 @@
       <c r="X12" s="353" t="n"/>
       <c r="Y12" s="354" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="388" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -15776,7 +15776,7 @@
       <c r="X13" s="353" t="n"/>
       <c r="Y13" s="354" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="388" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -15827,7 +15827,7 @@
       <c r="X14" s="353" t="n"/>
       <c r="Y14" s="354" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="388" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -15878,7 +15878,7 @@
       <c r="X15" s="353" t="n"/>
       <c r="Y15" s="354" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="409" t="n"/>
       <c r="B16" s="353" t="n"/>
       <c r="C16" s="353" t="n"/>
@@ -15917,7 +15917,7 @@
       <c r="X16" s="353" t="n"/>
       <c r="Y16" s="354" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="409" t="n"/>
       <c r="B17" s="353" t="n"/>
       <c r="C17" s="353" t="n"/>
@@ -15956,7 +15956,7 @@
       <c r="X17" s="353" t="n"/>
       <c r="Y17" s="354" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="18">
       <c r="A18" s="409" t="n"/>
       <c r="B18" s="353" t="n"/>
       <c r="C18" s="353" t="n"/>
@@ -15995,7 +15995,7 @@
       <c r="X18" s="353" t="n"/>
       <c r="Y18" s="354" t="n"/>
     </row>
-    <row r="19" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="19" thickBot="1">
       <c r="A19" s="409" t="n"/>
       <c r="B19" s="353" t="n"/>
       <c r="C19" s="353" t="n"/>
@@ -16040,7 +16040,7 @@
       <c r="X19" s="369" t="n"/>
       <c r="Y19" s="370" t="n"/>
     </row>
-    <row r="20" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="20" thickBot="1" thickTop="1">
       <c r="A20" s="418" t="n"/>
       <c r="B20" s="369" t="n"/>
       <c r="C20" s="369" t="n"/>
@@ -16079,7 +16079,7 @@
       <c r="X20" s="421" t="n"/>
       <c r="Y20" s="424" t="n"/>
     </row>
-    <row r="21" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="21" thickBot="1" thickTop="1">
       <c r="A21" s="26" t="inlineStr">
         <is>
           <t>Note</t>
@@ -16130,7 +16130,7 @@
       <c r="X21" s="384" t="n"/>
       <c r="Y21" s="387" t="n"/>
     </row>
-    <row r="22" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="22" thickBot="1" thickTop="1">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>No</t>
@@ -16233,7 +16233,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="119" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="119" thickTop="1">
       <c r="A23" s="40" t="n">
         <v>20</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="119">
       <c r="A24" s="42" t="n">
         <v>21</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="119">
       <c r="A25" s="44" t="n">
         <v>23</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="119">
       <c r="A26" s="42" t="n"/>
       <c r="B26" s="434" t="n"/>
       <c r="C26" s="353" t="n"/>
@@ -16515,7 +16515,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="119">
       <c r="A27" s="44" t="n"/>
       <c r="B27" s="434" t="n"/>
       <c r="C27" s="353" t="n"/>
@@ -16572,7 +16572,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="119">
       <c r="A28" s="42" t="n"/>
       <c r="B28" s="434" t="n"/>
       <c r="C28" s="353" t="n"/>
@@ -16629,7 +16629,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="119">
       <c r="A29" s="44" t="n"/>
       <c r="B29" s="434" t="n"/>
       <c r="C29" s="353" t="n"/>
@@ -16686,7 +16686,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="119">
       <c r="A30" s="42" t="n"/>
       <c r="B30" s="434" t="n"/>
       <c r="C30" s="353" t="n"/>
@@ -16743,7 +16743,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="119">
       <c r="A31" s="44" t="n"/>
       <c r="B31" s="434" t="n"/>
       <c r="C31" s="353" t="n"/>
@@ -16800,7 +16800,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="119">
       <c r="A32" s="42" t="n"/>
       <c r="B32" s="434" t="n"/>
       <c r="C32" s="353" t="n"/>
@@ -16857,7 +16857,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="119">
       <c r="A33" s="44" t="n"/>
       <c r="B33" s="434" t="n"/>
       <c r="C33" s="353" t="n"/>
@@ -16914,7 +16914,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="119">
       <c r="A34" s="42" t="n"/>
       <c r="B34" s="434" t="n"/>
       <c r="C34" s="353" t="n"/>
@@ -16971,7 +16971,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="119">
       <c r="A35" s="44" t="n"/>
       <c r="B35" s="434" t="n"/>
       <c r="C35" s="353" t="n"/>
@@ -17028,7 +17028,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="119">
       <c r="A36" s="42" t="n"/>
       <c r="B36" s="434" t="n"/>
       <c r="C36" s="353" t="n"/>
@@ -17085,7 +17085,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="119">
       <c r="A37" s="44" t="n"/>
       <c r="B37" s="434" t="n"/>
       <c r="C37" s="353" t="n"/>
@@ -17142,7 +17142,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="119">
       <c r="A38" s="42" t="n"/>
       <c r="B38" s="434" t="n"/>
       <c r="C38" s="353" t="n"/>
@@ -17199,7 +17199,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="119">
       <c r="A39" s="44" t="n"/>
       <c r="B39" s="434" t="n"/>
       <c r="C39" s="353" t="n"/>
@@ -17256,7 +17256,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="40" s="119">
       <c r="A40" s="42" t="n"/>
       <c r="B40" s="434" t="n"/>
       <c r="C40" s="353" t="n"/>
@@ -17313,7 +17313,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="41" s="119">
       <c r="A41" s="44" t="n"/>
       <c r="B41" s="434" t="n"/>
       <c r="C41" s="353" t="n"/>
@@ -17370,7 +17370,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="19.9" customFormat="1" customHeight="1" s="119" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="42" s="119" thickBot="1">
       <c r="A42" s="45" t="n"/>
       <c r="B42" s="182" t="n"/>
       <c r="C42" s="183" t="n"/>
@@ -17427,7 +17427,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="43" thickTop="1"/>
   </sheetData>
   <mergeCells count="146">
     <mergeCell ref="A5:C5"/>
@@ -17578,8 +17578,8 @@
     <mergeCell ref="H39:I39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="72" horizontalDpi="4294967293"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup horizontalDpi="4294967293" orientation="landscape" scale="72"/>
 </worksheet>
 </file>
 
@@ -17591,17 +17591,17 @@
   </sheetPr>
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="37" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="37" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="37" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="37" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="1" thickBot="1">
       <c r="A1" s="95" t="n"/>
       <c r="B1" s="95" t="n"/>
       <c r="C1" s="95" t="n"/>
@@ -17630,7 +17630,7 @@
       <c r="Y1" s="95" t="n"/>
       <c r="Z1" s="37" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="2" thickTop="1">
       <c r="A2" s="348" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -17660,7 +17660,7 @@
       <c r="Y2" s="37" t="n"/>
       <c r="Z2" s="37" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="352" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -17692,7 +17692,7 @@
       <c r="Y3" s="38" t="n"/>
       <c r="Z3" s="37" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickTop="1">
       <c r="A4" s="352" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -17735,7 +17735,7 @@
       <c r="X4" s="349" t="n"/>
       <c r="Y4" s="350" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="352" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -17777,7 +17777,7 @@
       <c r="X5" s="361" t="n"/>
       <c r="Y5" s="362" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="352" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -17810,7 +17810,7 @@
       <c r="X6" s="366" t="n"/>
       <c r="Y6" s="367" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="368" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -17849,7 +17849,7 @@
       <c r="X7" s="364" t="n"/>
       <c r="Y7" s="373" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="374" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -17900,7 +17900,7 @@
       <c r="X8" s="379" t="n"/>
       <c r="Y8" s="381" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickBot="1" thickTop="1">
       <c r="A9" s="382" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -17951,7 +17951,7 @@
       <c r="X9" s="384" t="n"/>
       <c r="Y9" s="387" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="10" thickTop="1">
       <c r="A10" s="388" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -18002,7 +18002,7 @@
       <c r="X10" s="353" t="n"/>
       <c r="Y10" s="354" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="388" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -18055,7 +18055,7 @@
       <c r="X11" s="353" t="n"/>
       <c r="Y11" s="354" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="388" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -18104,7 +18104,7 @@
       <c r="X12" s="353" t="n"/>
       <c r="Y12" s="354" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="388" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -18155,7 +18155,7 @@
       <c r="X13" s="353" t="n"/>
       <c r="Y13" s="354" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="388" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -18206,7 +18206,7 @@
       <c r="X14" s="353" t="n"/>
       <c r="Y14" s="354" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="388" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -18257,7 +18257,7 @@
       <c r="X15" s="353" t="n"/>
       <c r="Y15" s="354" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="409" t="n"/>
       <c r="B16" s="353" t="n"/>
       <c r="C16" s="353" t="n"/>
@@ -18296,7 +18296,7 @@
       <c r="X16" s="353" t="n"/>
       <c r="Y16" s="354" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="409" t="n"/>
       <c r="B17" s="353" t="n"/>
       <c r="C17" s="353" t="n"/>
@@ -18335,7 +18335,7 @@
       <c r="X17" s="353" t="n"/>
       <c r="Y17" s="354" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="18">
       <c r="A18" s="409" t="n"/>
       <c r="B18" s="353" t="n"/>
       <c r="C18" s="353" t="n"/>
@@ -18374,7 +18374,7 @@
       <c r="X18" s="353" t="n"/>
       <c r="Y18" s="354" t="n"/>
     </row>
-    <row r="19" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="19" thickBot="1">
       <c r="A19" s="409" t="n"/>
       <c r="B19" s="353" t="n"/>
       <c r="C19" s="353" t="n"/>
@@ -18419,7 +18419,7 @@
       <c r="X19" s="369" t="n"/>
       <c r="Y19" s="370" t="n"/>
     </row>
-    <row r="20" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="20" thickBot="1" thickTop="1">
       <c r="A20" s="418" t="n"/>
       <c r="B20" s="369" t="n"/>
       <c r="C20" s="369" t="n"/>
@@ -18458,7 +18458,7 @@
       <c r="X20" s="421" t="n"/>
       <c r="Y20" s="424" t="n"/>
     </row>
-    <row r="21" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="21" thickBot="1" thickTop="1">
       <c r="A21" s="26" t="inlineStr">
         <is>
           <t>Note</t>
@@ -18509,7 +18509,7 @@
       <c r="X21" s="384" t="n"/>
       <c r="Y21" s="387" t="n"/>
     </row>
-    <row r="22" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="22" thickBot="1" thickTop="1">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>No</t>
@@ -18612,7 +18612,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="119" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="119" thickTop="1">
       <c r="A23" s="40" t="n">
         <v>22</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="119">
       <c r="A24" s="42" t="n"/>
       <c r="B24" s="434" t="n"/>
       <c r="C24" s="353" t="n"/>
@@ -18744,7 +18744,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="119">
       <c r="A25" s="44" t="n"/>
       <c r="B25" s="434" t="n"/>
       <c r="C25" s="353" t="n"/>
@@ -18801,7 +18801,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="119">
       <c r="A26" s="42" t="n"/>
       <c r="B26" s="434" t="n"/>
       <c r="C26" s="353" t="n"/>
@@ -18858,7 +18858,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="119">
       <c r="A27" s="44" t="n"/>
       <c r="B27" s="434" t="n"/>
       <c r="C27" s="353" t="n"/>
@@ -18915,7 +18915,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="119">
       <c r="A28" s="42" t="n"/>
       <c r="B28" s="434" t="n"/>
       <c r="C28" s="353" t="n"/>
@@ -18972,7 +18972,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="119">
       <c r="A29" s="44" t="n"/>
       <c r="B29" s="434" t="n"/>
       <c r="C29" s="353" t="n"/>
@@ -19029,7 +19029,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="119">
       <c r="A30" s="42" t="n"/>
       <c r="B30" s="434" t="n"/>
       <c r="C30" s="353" t="n"/>
@@ -19086,7 +19086,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="119">
       <c r="A31" s="44" t="n"/>
       <c r="B31" s="434" t="n"/>
       <c r="C31" s="353" t="n"/>
@@ -19143,7 +19143,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="119">
       <c r="A32" s="42" t="n"/>
       <c r="B32" s="434" t="n"/>
       <c r="C32" s="353" t="n"/>
@@ -19200,7 +19200,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="119">
       <c r="A33" s="44" t="n"/>
       <c r="B33" s="434" t="n"/>
       <c r="C33" s="353" t="n"/>
@@ -19257,7 +19257,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="119">
       <c r="A34" s="42" t="n"/>
       <c r="B34" s="434" t="n"/>
       <c r="C34" s="353" t="n"/>
@@ -19314,7 +19314,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="119">
       <c r="A35" s="44" t="n"/>
       <c r="B35" s="434" t="n"/>
       <c r="C35" s="353" t="n"/>
@@ -19371,7 +19371,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="119">
       <c r="A36" s="42" t="n"/>
       <c r="B36" s="434" t="n"/>
       <c r="C36" s="353" t="n"/>
@@ -19428,7 +19428,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="119">
       <c r="A37" s="44" t="n"/>
       <c r="B37" s="434" t="n"/>
       <c r="C37" s="353" t="n"/>
@@ -19485,7 +19485,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="119">
       <c r="A38" s="42" t="n"/>
       <c r="B38" s="434" t="n"/>
       <c r="C38" s="353" t="n"/>
@@ -19542,7 +19542,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="119">
       <c r="A39" s="44" t="n"/>
       <c r="B39" s="434" t="n"/>
       <c r="C39" s="353" t="n"/>
@@ -19599,7 +19599,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="40" s="119">
       <c r="A40" s="42" t="n"/>
       <c r="B40" s="434" t="n"/>
       <c r="C40" s="353" t="n"/>
@@ -19656,7 +19656,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="41" s="119">
       <c r="A41" s="44" t="n"/>
       <c r="B41" s="434" t="n"/>
       <c r="C41" s="353" t="n"/>
@@ -19713,7 +19713,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="19.9" customFormat="1" customHeight="1" s="119" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="42" s="119" thickBot="1">
       <c r="A42" s="45" t="n"/>
       <c r="B42" s="182" t="n"/>
       <c r="C42" s="183" t="n"/>
@@ -19770,7 +19770,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="43" thickTop="1"/>
   </sheetData>
   <mergeCells count="146">
     <mergeCell ref="A5:C5"/>
@@ -19921,8 +19921,8 @@
     <mergeCell ref="B32:G32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="72" horizontalDpi="4294967293"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup horizontalDpi="4294967293" orientation="landscape" scale="72"/>
 </worksheet>
 </file>
 
@@ -19934,18 +19934,18 @@
   </sheetPr>
   <dimension ref="A1:DQ49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="107" min="1" max="25"/>
-    <col width="1.85546875" customWidth="1" style="107" min="26" max="26"/>
-    <col width="1.7109375" customWidth="1" style="107" min="27" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="107" width="1.7109375"/>
+    <col customWidth="1" max="26" min="26" style="107" width="1.85546875"/>
+    <col customWidth="1" max="16384" min="27" style="107" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="307" t="inlineStr">
         <is>
           <t>SURVEY INFORMATION SHEETS</t>
@@ -20028,7 +20028,7 @@
       <c r="BX1" s="364" t="n"/>
       <c r="BY1" s="364" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="108" t="n"/>
       <c r="B2" s="109" t="n"/>
       <c r="C2" s="109" t="n"/>
@@ -20107,7 +20107,7 @@
       <c r="BX2" s="109" t="n"/>
       <c r="BY2" s="110" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="113" t="n"/>
@@ -20186,7 +20186,7 @@
       <c r="BX3" s="113" t="n"/>
       <c r="BY3" s="114" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="113" t="n"/>
       <c r="C4" s="113" t="n"/>
@@ -20265,7 +20265,7 @@
       <c r="BX4" s="113" t="n"/>
       <c r="BY4" s="114" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="115" t="n"/>
       <c r="B5" s="107" t="n"/>
       <c r="C5" s="107" t="n"/>
@@ -20344,7 +20344,7 @@
       <c r="BX5" s="107" t="n"/>
       <c r="BY5" s="117" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="115" t="n"/>
       <c r="B6" s="107" t="n"/>
       <c r="C6" s="107" t="n"/>
@@ -20423,7 +20423,7 @@
       <c r="BX6" s="107" t="n"/>
       <c r="BY6" s="117" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="115" t="n"/>
       <c r="B7" s="107" t="n"/>
       <c r="C7" s="107" t="n"/>
@@ -20502,7 +20502,7 @@
       <c r="BX7" s="107" t="n"/>
       <c r="BY7" s="117" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="115" t="n"/>
       <c r="B8" s="107" t="n"/>
       <c r="C8" s="107" t="n"/>
@@ -20581,7 +20581,7 @@
       <c r="BX8" s="107" t="n"/>
       <c r="BY8" s="117" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="115" t="n"/>
       <c r="B9" s="107" t="n"/>
       <c r="C9" s="107" t="n"/>
@@ -20660,7 +20660,7 @@
       <c r="BX9" s="107" t="n"/>
       <c r="BY9" s="117" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="115" t="n"/>
       <c r="B10" s="107" t="n"/>
       <c r="C10" s="107" t="n"/>
@@ -20739,7 +20739,7 @@
       <c r="BX10" s="107" t="n"/>
       <c r="BY10" s="117" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="115" t="n"/>
       <c r="B11" s="107" t="n"/>
       <c r="C11" s="107" t="n"/>
@@ -20818,7 +20818,7 @@
       <c r="BX11" s="107" t="n"/>
       <c r="BY11" s="117" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="115" t="n"/>
       <c r="B12" s="107" t="n"/>
       <c r="C12" s="107" t="n"/>
@@ -20897,7 +20897,7 @@
       <c r="BX12" s="107" t="n"/>
       <c r="BY12" s="117" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="115" t="n"/>
       <c r="B13" s="107" t="n"/>
       <c r="C13" s="107" t="n"/>
@@ -20976,7 +20976,7 @@
       <c r="BX13" s="107" t="n"/>
       <c r="BY13" s="117" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="115" t="n"/>
       <c r="B14" s="107" t="n"/>
       <c r="C14" s="107" t="n"/>
@@ -21055,7 +21055,7 @@
       <c r="BX14" s="107" t="n"/>
       <c r="BY14" s="117" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="115" t="n"/>
       <c r="B15" s="107" t="n"/>
       <c r="C15" s="107" t="n"/>
@@ -21134,7 +21134,7 @@
       <c r="BX15" s="107" t="n"/>
       <c r="BY15" s="117" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="115" t="n"/>
       <c r="B16" s="107" t="n"/>
       <c r="C16" s="107" t="n"/>
@@ -21213,7 +21213,7 @@
       <c r="BX16" s="107" t="n"/>
       <c r="BY16" s="117" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="115" t="n"/>
       <c r="B17" s="107" t="n"/>
       <c r="C17" s="107" t="n"/>
@@ -21311,7 +21311,7 @@
       <c r="DP17" s="119" t="n"/>
       <c r="DQ17" s="119" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="115" t="n"/>
       <c r="B18" s="107" t="n"/>
       <c r="C18" s="107" t="n"/>
@@ -21409,7 +21409,7 @@
       <c r="DP18" s="119" t="n"/>
       <c r="DQ18" s="119" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="115" t="n"/>
       <c r="B19" s="107" t="n"/>
       <c r="C19" s="107" t="n"/>
@@ -21507,7 +21507,7 @@
       <c r="DP19" s="119" t="n"/>
       <c r="DQ19" s="119" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="115" t="n"/>
       <c r="B20" s="107" t="n"/>
       <c r="C20" s="107" t="n"/>
@@ -21605,7 +21605,7 @@
       <c r="DP20" s="119" t="n"/>
       <c r="DQ20" s="119" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="115" t="n"/>
       <c r="B21" s="107" t="n"/>
       <c r="C21" s="107" t="n"/>
@@ -21703,7 +21703,7 @@
       <c r="DP21" s="119" t="n"/>
       <c r="DQ21" s="119" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="115" t="n"/>
       <c r="B22" s="107" t="n"/>
       <c r="C22" s="107" t="n"/>
@@ -21801,7 +21801,7 @@
       <c r="DP22" s="119" t="n"/>
       <c r="DQ22" s="119" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="115" t="n"/>
       <c r="B23" s="107" t="n"/>
       <c r="C23" s="107" t="n"/>
@@ -21899,7 +21899,7 @@
       <c r="DP23" s="119" t="n"/>
       <c r="DQ23" s="119" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="115" t="n"/>
       <c r="B24" s="107" t="n"/>
       <c r="C24" s="107" t="n"/>
@@ -21997,7 +21997,7 @@
       <c r="DP24" s="119" t="n"/>
       <c r="DQ24" s="119" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="115" t="n"/>
       <c r="B25" s="107" t="n"/>
       <c r="C25" s="107" t="n"/>
@@ -22095,7 +22095,7 @@
       <c r="DP25" s="119" t="n"/>
       <c r="DQ25" s="119" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="115" t="n"/>
       <c r="B26" s="107" t="n"/>
       <c r="C26" s="107" t="n"/>
@@ -22174,7 +22174,7 @@
       <c r="BX26" s="107" t="n"/>
       <c r="BY26" s="117" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="115" t="n"/>
       <c r="B27" s="119" t="n"/>
       <c r="C27" s="119" t="n"/>
@@ -22253,7 +22253,7 @@
       <c r="BX27" s="107" t="n"/>
       <c r="BY27" s="117" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="115" t="n"/>
       <c r="B28" s="119" t="n"/>
       <c r="C28" s="119" t="n"/>
@@ -22332,7 +22332,7 @@
       <c r="BX28" s="107" t="n"/>
       <c r="BY28" s="117" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="115" t="n"/>
       <c r="B29" s="119" t="n"/>
       <c r="C29" s="119" t="n"/>
@@ -22411,7 +22411,7 @@
       <c r="BX29" s="107" t="n"/>
       <c r="BY29" s="117" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="115" t="n"/>
       <c r="B30" s="119" t="n"/>
       <c r="C30" s="119" t="n"/>
@@ -22490,7 +22490,7 @@
       <c r="BX30" s="107" t="n"/>
       <c r="BY30" s="117" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="115" t="n"/>
       <c r="B31" s="119" t="n"/>
       <c r="C31" s="119" t="n"/>
@@ -22569,7 +22569,7 @@
       <c r="BX31" s="107" t="n"/>
       <c r="BY31" s="117" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="115" t="n"/>
       <c r="B32" s="119" t="n"/>
       <c r="C32" s="119" t="n"/>
@@ -22648,7 +22648,7 @@
       <c r="BX32" s="107" t="n"/>
       <c r="BY32" s="117" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="115" t="n"/>
       <c r="B33" s="119" t="n"/>
       <c r="C33" s="119" t="n"/>
@@ -22727,7 +22727,7 @@
       <c r="BX33" s="107" t="n"/>
       <c r="BY33" s="117" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="115" t="n"/>
       <c r="B34" s="119" t="n"/>
       <c r="C34" s="119" t="n"/>
@@ -22806,7 +22806,7 @@
       <c r="BX34" s="107" t="n"/>
       <c r="BY34" s="117" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="115" t="n"/>
       <c r="B35" s="119" t="n"/>
       <c r="C35" s="119" t="n"/>
@@ -22885,7 +22885,7 @@
       <c r="BX35" s="107" t="n"/>
       <c r="BY35" s="117" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="115" t="n"/>
       <c r="B36" s="119" t="n"/>
       <c r="C36" s="119" t="n"/>
@@ -22964,7 +22964,7 @@
       <c r="BX36" s="107" t="n"/>
       <c r="BY36" s="117" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="37">
       <c r="A37" s="115" t="n"/>
       <c r="B37" s="107" t="n"/>
       <c r="C37" s="107" t="n"/>
@@ -23043,7 +23043,7 @@
       <c r="BX37" s="107" t="n"/>
       <c r="BY37" s="117" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="38">
       <c r="A38" s="124" t="n"/>
       <c r="B38" s="132" t="n"/>
       <c r="C38" s="132" t="n"/>
@@ -23122,7 +23122,7 @@
       <c r="BX38" s="37" t="n"/>
       <c r="BY38" s="125" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="124" t="n"/>
       <c r="B39" s="132" t="n"/>
       <c r="C39" s="132" t="n"/>
@@ -23201,7 +23201,7 @@
       <c r="BX39" s="37" t="n"/>
       <c r="BY39" s="125" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="124" t="n"/>
       <c r="B40" s="132" t="n"/>
       <c r="C40" s="132" t="n"/>
@@ -23283,7 +23283,7 @@
       <c r="CA40" s="107" t="n"/>
       <c r="CB40" s="107" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="41" thickBot="1">
       <c r="A41" s="126" t="n"/>
       <c r="B41" s="67" t="n"/>
       <c r="C41" s="67" t="n"/>
@@ -23367,7 +23367,7 @@
       <c r="CH41" s="107" t="n"/>
       <c r="CI41" s="107" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="42" thickTop="1">
       <c r="A42" s="382" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -23481,7 +23481,7 @@
       <c r="DD42" s="107" t="n"/>
       <c r="DE42" s="107" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="43" thickBot="1">
       <c r="A43" s="388" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -23595,7 +23595,7 @@
       <c r="DD43" s="107" t="n"/>
       <c r="DE43" s="107" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="44" thickTop="1">
       <c r="A44" s="131" t="n"/>
       <c r="B44" s="131" t="n"/>
       <c r="C44" s="131" t="n"/>
@@ -23697,7 +23697,7 @@
       <c r="CZ44" s="107" t="n"/>
       <c r="DA44" s="107" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="45">
       <c r="A45" s="107" t="n"/>
       <c r="B45" s="107" t="n"/>
       <c r="C45" s="107" t="n"/>
@@ -23706,7 +23706,7 @@
       <c r="F45" s="107" t="n"/>
       <c r="G45" s="107" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46">
       <c r="A46" s="119" t="n"/>
       <c r="B46" s="119" t="n"/>
       <c r="C46" s="107" t="n"/>
@@ -23715,7 +23715,7 @@
       <c r="F46" s="107" t="n"/>
       <c r="G46" s="107" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="47">
       <c r="A47" s="119" t="n"/>
       <c r="B47" s="119" t="n"/>
       <c r="C47" s="107" t="n"/>
@@ -23724,7 +23724,7 @@
       <c r="F47" s="107" t="n"/>
       <c r="G47" s="107" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="A48" s="107" t="n"/>
       <c r="B48" s="107" t="n"/>
       <c r="C48" s="107" t="n"/>
@@ -23743,8 +23743,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -23764,17 +23764,17 @@
   </sheetPr>
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="37" min="1" max="25"/>
-    <col width="9.140625" customWidth="1" style="37" min="26" max="16384"/>
+    <col customWidth="1" max="25" min="1" style="37" width="7.28515625"/>
+    <col customWidth="1" max="16384" min="26" style="37" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="1" thickBot="1">
       <c r="A1" s="95" t="n"/>
       <c r="B1" s="95" t="n"/>
       <c r="C1" s="95" t="n"/>
@@ -23803,7 +23803,7 @@
       <c r="Y1" s="95" t="n"/>
       <c r="Z1" s="37" t="n"/>
     </row>
-    <row r="2" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="2" thickTop="1">
       <c r="A2" s="348" t="inlineStr">
         <is>
           <t>Survey Number</t>
@@ -23833,7 +23833,7 @@
       <c r="Y2" s="37" t="n"/>
       <c r="Z2" s="37" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="352" t="inlineStr">
         <is>
           <t>Date Surveyed</t>
@@ -23865,7 +23865,7 @@
       <c r="Y3" s="38" t="n"/>
       <c r="Z3" s="37" t="n"/>
     </row>
-    <row r="4" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="4" thickTop="1">
       <c r="A4" s="352" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -23908,7 +23908,7 @@
       <c r="X4" s="349" t="n"/>
       <c r="Y4" s="350" t="n"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="352" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -23950,7 +23950,7 @@
       <c r="X5" s="361" t="n"/>
       <c r="Y5" s="362" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="6" thickBot="1">
       <c r="A6" s="352" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -23983,7 +23983,7 @@
       <c r="X6" s="366" t="n"/>
       <c r="Y6" s="367" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="7" thickBot="1" thickTop="1">
       <c r="A7" s="368" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -24022,7 +24022,7 @@
       <c r="X7" s="364" t="n"/>
       <c r="Y7" s="373" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="8" thickBot="1" thickTop="1">
       <c r="A8" s="374" t="inlineStr">
         <is>
           <t>Building Material Background - cpm</t>
@@ -24073,7 +24073,7 @@
       <c r="X8" s="379" t="n"/>
       <c r="Y8" s="381" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="9" thickBot="1" thickTop="1">
       <c r="A9" s="382" t="inlineStr">
         <is>
           <t>Brick</t>
@@ -24124,7 +24124,7 @@
       <c r="X9" s="384" t="n"/>
       <c r="Y9" s="387" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="18" r="10" thickTop="1">
       <c r="A10" s="388" t="inlineStr">
         <is>
           <t>Concrete</t>
@@ -24177,7 +24177,7 @@
       <c r="X10" s="353" t="n"/>
       <c r="Y10" s="354" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="388" t="inlineStr">
         <is>
           <t>Linoleum</t>
@@ -24230,7 +24230,7 @@
       <c r="X11" s="353" t="n"/>
       <c r="Y11" s="354" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="388" t="inlineStr">
         <is>
           <t>Drywall</t>
@@ -24279,7 +24279,7 @@
       <c r="X12" s="353" t="n"/>
       <c r="Y12" s="354" t="n"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="388" t="inlineStr">
         <is>
           <t>Metal</t>
@@ -24330,7 +24330,7 @@
       <c r="X13" s="353" t="n"/>
       <c r="Y13" s="354" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="388" t="inlineStr">
         <is>
           <t>Ceiling Tile</t>
@@ -24381,7 +24381,7 @@
       <c r="X14" s="353" t="n"/>
       <c r="Y14" s="354" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="388" t="inlineStr">
         <is>
           <t>Wood</t>
@@ -24432,7 +24432,7 @@
       <c r="X15" s="353" t="n"/>
       <c r="Y15" s="354" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="388" t="inlineStr">
         <is>
           <t>Glass</t>
@@ -24483,7 +24483,7 @@
       <c r="X16" s="353" t="n"/>
       <c r="Y16" s="354" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="409" t="n"/>
       <c r="B17" s="353" t="n"/>
       <c r="C17" s="353" t="n"/>
@@ -24522,7 +24522,7 @@
       <c r="X17" s="353" t="n"/>
       <c r="Y17" s="354" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="18">
       <c r="A18" s="409" t="n"/>
       <c r="B18" s="353" t="n"/>
       <c r="C18" s="353" t="n"/>
@@ -24561,7 +24561,7 @@
       <c r="X18" s="353" t="n"/>
       <c r="Y18" s="354" t="n"/>
     </row>
-    <row r="19" ht="18" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="18" r="19" thickBot="1">
       <c r="A19" s="409" t="n"/>
       <c r="B19" s="353" t="n"/>
       <c r="C19" s="353" t="n"/>
@@ -24606,7 +24606,7 @@
       <c r="X19" s="369" t="n"/>
       <c r="Y19" s="370" t="n"/>
     </row>
-    <row r="20" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="20" thickBot="1" thickTop="1">
       <c r="A20" s="418" t="n"/>
       <c r="B20" s="369" t="n"/>
       <c r="C20" s="369" t="n"/>
@@ -24645,7 +24645,7 @@
       <c r="X20" s="421" t="n"/>
       <c r="Y20" s="424" t="n"/>
     </row>
-    <row r="21" ht="18" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="18" r="21" thickBot="1" thickTop="1">
       <c r="A21" s="26" t="inlineStr">
         <is>
           <t>Note</t>
@@ -24696,7 +24696,7 @@
       <c r="X21" s="384" t="n"/>
       <c r="Y21" s="387" t="n"/>
     </row>
-    <row r="22" ht="49.9" customHeight="1" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="49.9" r="22" thickBot="1" thickTop="1">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>No</t>
@@ -24799,7 +24799,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="19.9" customFormat="1" customHeight="1" s="119" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="23" s="119" thickTop="1">
       <c r="A23" s="100" t="n">
         <v>24</v>
       </c>
@@ -24874,7 +24874,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="24" s="119">
       <c r="A24" s="102" t="n">
         <v>25</v>
       </c>
@@ -24949,7 +24949,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="25" s="119">
       <c r="A25" s="104" t="n">
         <v>26</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="26" s="119">
       <c r="A26" s="104" t="n">
         <v>27</v>
       </c>
@@ -25099,7 +25099,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="27" s="119">
       <c r="A27" s="104" t="n">
         <v>28</v>
       </c>
@@ -25174,7 +25174,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="28" s="119">
       <c r="A28" s="104" t="n"/>
       <c r="B28" s="434" t="n"/>
       <c r="C28" s="353" t="n"/>
@@ -25231,7 +25231,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="29" s="119">
       <c r="A29" s="104" t="n"/>
       <c r="B29" s="434" t="n"/>
       <c r="C29" s="353" t="n"/>
@@ -25288,7 +25288,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="30" s="119">
       <c r="A30" s="104" t="n"/>
       <c r="B30" s="434" t="n"/>
       <c r="C30" s="353" t="n"/>
@@ -25345,7 +25345,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="31" s="119">
       <c r="A31" s="104" t="n"/>
       <c r="B31" s="434" t="n"/>
       <c r="C31" s="353" t="n"/>
@@ -25402,7 +25402,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="32" s="119">
       <c r="A32" s="104" t="n"/>
       <c r="B32" s="434" t="n"/>
       <c r="C32" s="353" t="n"/>
@@ -25459,7 +25459,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="33" s="119">
       <c r="A33" s="104" t="n"/>
       <c r="B33" s="434" t="n"/>
       <c r="C33" s="353" t="n"/>
@@ -25516,7 +25516,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="34" s="119">
       <c r="A34" s="102" t="n"/>
       <c r="B34" s="434" t="n"/>
       <c r="C34" s="353" t="n"/>
@@ -25573,7 +25573,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="35" s="119">
       <c r="A35" s="102" t="n"/>
       <c r="B35" s="434" t="n"/>
       <c r="C35" s="353" t="n"/>
@@ -25630,7 +25630,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="36" s="119">
       <c r="A36" s="104" t="n"/>
       <c r="B36" s="434" t="n"/>
       <c r="C36" s="353" t="n"/>
@@ -25687,7 +25687,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="37" s="119">
       <c r="A37" s="104" t="n"/>
       <c r="B37" s="434" t="n"/>
       <c r="C37" s="353" t="n"/>
@@ -25744,7 +25744,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="38" s="119">
       <c r="A38" s="102" t="n"/>
       <c r="B38" s="434" t="n"/>
       <c r="C38" s="353" t="n"/>
@@ -25801,7 +25801,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="39" s="119">
       <c r="A39" s="104" t="n"/>
       <c r="B39" s="434" t="n"/>
       <c r="C39" s="353" t="n"/>
@@ -25858,7 +25858,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="40" s="119">
       <c r="A40" s="104" t="n"/>
       <c r="B40" s="434" t="n"/>
       <c r="C40" s="353" t="n"/>
@@ -25915,7 +25915,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="19.9" customFormat="1" customHeight="1" s="119">
+    <row customFormat="1" customHeight="1" ht="19.9" r="41" s="119">
       <c r="A41" s="104" t="n"/>
       <c r="B41" s="434" t="n"/>
       <c r="C41" s="353" t="n"/>
@@ -25972,7 +25972,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="19.9" customFormat="1" customHeight="1" s="119" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="19.9" r="42" s="119" thickBot="1">
       <c r="A42" s="105" t="n"/>
       <c r="B42" s="182" t="n"/>
       <c r="C42" s="183" t="n"/>
@@ -26029,7 +26029,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="13.5" customHeight="1" thickTop="1"/>
+    <row customHeight="1" ht="13.5" r="43" thickTop="1"/>
   </sheetData>
   <mergeCells count="146">
     <mergeCell ref="A5:C5"/>
@@ -26180,8 +26180,8 @@
     <mergeCell ref="H39:I39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup orientation="landscape" scale="72" horizontalDpi="4294967293"/>
+  <pageMargins bottom="0.25" footer="0" header="0" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup horizontalDpi="4294967293" orientation="landscape" scale="72"/>
 </worksheet>
 </file>
 
@@ -26193,16 +26193,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="107" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="107" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="333" t="inlineStr">
         <is>
           <t>Survey Information Sheet</t>
@@ -26285,7 +26285,7 @@
       <c r="BX1" s="364" t="n"/>
       <c r="BY1" s="364" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="108" t="n"/>
       <c r="B2" s="109" t="n"/>
       <c r="C2" s="109" t="n"/>
@@ -26364,7 +26364,7 @@
       <c r="BX2" s="109" t="n"/>
       <c r="BY2" s="110" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="113" t="n"/>
@@ -26443,7 +26443,7 @@
       <c r="BX3" s="113" t="n"/>
       <c r="BY3" s="114" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="113" t="n"/>
       <c r="C4" s="113" t="n"/>
@@ -26522,7 +26522,7 @@
       <c r="BX4" s="113" t="n"/>
       <c r="BY4" s="114" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="115" t="n"/>
       <c r="AW5" s="116" t="n"/>
       <c r="AX5" s="116" t="n"/>
@@ -26540,7 +26540,7 @@
       <c r="BJ5" s="116" t="n"/>
       <c r="BY5" s="117" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="115" t="n"/>
       <c r="AW6" s="116" t="n"/>
       <c r="AX6" s="116" t="n"/>
@@ -26558,7 +26558,7 @@
       <c r="BJ6" s="116" t="n"/>
       <c r="BY6" s="117" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="115" t="n"/>
       <c r="V7" s="116" t="n"/>
       <c r="W7" s="116" t="n"/>
@@ -26592,7 +26592,7 @@
       <c r="BJ7" s="118" t="n"/>
       <c r="BY7" s="117" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="115" t="n"/>
       <c r="V8" s="116" t="n"/>
       <c r="W8" s="116" t="n"/>
@@ -26626,7 +26626,7 @@
       <c r="BJ8" s="118" t="n"/>
       <c r="BY8" s="117" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="115" t="n"/>
       <c r="V9" s="118" t="n"/>
       <c r="W9" s="118" t="n"/>
@@ -26646,7 +26646,7 @@
       <c r="AK9" s="118" t="n"/>
       <c r="BY9" s="117" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="115" t="n"/>
       <c r="V10" s="118" t="n"/>
       <c r="W10" s="118" t="n"/>
@@ -26666,7 +26666,7 @@
       <c r="AK10" s="118" t="n"/>
       <c r="BY10" s="117" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="115" t="n"/>
       <c r="V11" s="118" t="n"/>
       <c r="W11" s="118" t="n"/>
@@ -26686,35 +26686,35 @@
       <c r="AK11" s="118" t="n"/>
       <c r="BY11" s="117" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="115" t="n"/>
       <c r="BY12" s="117" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="115" t="n"/>
       <c r="BY13" s="117" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="115" t="n"/>
       <c r="BY14" s="117" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="115" t="n"/>
       <c r="BY15" s="117" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="115" t="n"/>
       <c r="BY16" s="117" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="115" t="n"/>
       <c r="BY17" s="117" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="115" t="n"/>
       <c r="BY18" s="117" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="115" t="n"/>
       <c r="BY19" s="117" t="n"/>
       <c r="CP19" s="119" t="n"/>
@@ -26737,7 +26737,7 @@
       <c r="DG19" s="119" t="n"/>
       <c r="DH19" s="119" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="115" t="n"/>
       <c r="BY20" s="117" t="n"/>
       <c r="CP20" s="119" t="n"/>
@@ -26760,7 +26760,7 @@
       <c r="DG20" s="119" t="n"/>
       <c r="DH20" s="119" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="115" t="n"/>
       <c r="BY21" s="117" t="n"/>
       <c r="CP21" s="119" t="n"/>
@@ -26783,7 +26783,7 @@
       <c r="DG21" s="119" t="n"/>
       <c r="DH21" s="119" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="115" t="n"/>
       <c r="BY22" s="117" t="n"/>
       <c r="CP22" s="119" t="n"/>
@@ -26806,7 +26806,7 @@
       <c r="DG22" s="119" t="n"/>
       <c r="DH22" s="119" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="115" t="n"/>
       <c r="AL23" s="116" t="n"/>
       <c r="AM23" s="116" t="n"/>
@@ -26839,7 +26839,7 @@
       <c r="DG23" s="119" t="n"/>
       <c r="DH23" s="119" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="115" t="n"/>
       <c r="J24" s="116" t="n"/>
       <c r="K24" s="116" t="n"/>
@@ -26867,7 +26867,7 @@
       <c r="AU24" s="116" t="n"/>
       <c r="BY24" s="117" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="115" t="n"/>
       <c r="J25" s="116" t="n"/>
       <c r="K25" s="116" t="n"/>
@@ -26895,7 +26895,7 @@
       <c r="AU25" s="118" t="n"/>
       <c r="BY25" s="117" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="115" t="n"/>
       <c r="BC26" s="116" t="n"/>
       <c r="BD26" s="116" t="n"/>
@@ -26913,7 +26913,7 @@
       <c r="BP26" s="116" t="n"/>
       <c r="BY26" s="117" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="115" t="n"/>
       <c r="B27" s="119" t="n"/>
       <c r="C27" s="119" t="n"/>
@@ -26955,7 +26955,7 @@
       <c r="BP27" s="116" t="n"/>
       <c r="BY27" s="117" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="115" t="n"/>
       <c r="B28" s="119" t="n"/>
       <c r="C28" s="119" t="n"/>
@@ -26997,7 +26997,7 @@
       <c r="BP28" s="116" t="n"/>
       <c r="BY28" s="117" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="115" t="n"/>
       <c r="B29" s="119" t="n"/>
       <c r="C29" s="119" t="n"/>
@@ -27039,7 +27039,7 @@
       <c r="BP29" s="116" t="n"/>
       <c r="BY29" s="117" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="115" t="n"/>
       <c r="B30" s="119" t="n"/>
       <c r="C30" s="119" t="n"/>
@@ -27081,7 +27081,7 @@
       <c r="BP30" s="118" t="n"/>
       <c r="BY30" s="117" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="115" t="n"/>
       <c r="B31" s="119" t="n"/>
       <c r="C31" s="119" t="n"/>
@@ -27123,7 +27123,7 @@
       <c r="BP31" s="118" t="n"/>
       <c r="BY31" s="117" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="115" t="n"/>
       <c r="B32" s="119" t="n"/>
       <c r="C32" s="119" t="n"/>
@@ -27151,7 +27151,7 @@
       <c r="Y32" s="121" t="n"/>
       <c r="BY32" s="117" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="115" t="n"/>
       <c r="B33" s="119" t="n"/>
       <c r="C33" s="119" t="n"/>
@@ -27212,7 +27212,7 @@
       <c r="BS33" s="123" t="n"/>
       <c r="BY33" s="117" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="115" t="n"/>
       <c r="B34" s="119" t="n"/>
       <c r="C34" s="119" t="n"/>
@@ -27273,7 +27273,7 @@
       <c r="BS34" s="123" t="n"/>
       <c r="BY34" s="117" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="115" t="n"/>
       <c r="B35" s="119" t="n"/>
       <c r="C35" s="119" t="n"/>
@@ -27282,7 +27282,7 @@
       <c r="F35" s="119" t="n"/>
       <c r="BY35" s="117" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="115" t="n"/>
       <c r="B36" s="119" t="n"/>
       <c r="C36" s="119" t="n"/>
@@ -27291,11 +27291,11 @@
       <c r="F36" s="119" t="n"/>
       <c r="BY36" s="117" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="37">
       <c r="A37" s="115" t="n"/>
       <c r="BY37" s="117" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="38">
       <c r="A38" s="124" t="n"/>
       <c r="B38" s="335" t="inlineStr">
         <is>
@@ -27304,15 +27304,15 @@
       </c>
       <c r="BY38" s="125" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="124" t="n"/>
       <c r="BY39" s="125" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="124" t="n"/>
       <c r="BY40" s="125" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="41" thickBot="1">
       <c r="A41" s="126" t="n"/>
       <c r="B41" s="364" t="n"/>
       <c r="C41" s="364" t="n"/>
@@ -27391,7 +27391,7 @@
       <c r="BX41" s="364" t="n"/>
       <c r="BY41" s="127" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="42" thickTop="1">
       <c r="A42" s="382" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -27452,7 +27452,7 @@
       <c r="BX42" s="129" t="n"/>
       <c r="BY42" s="125" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="43" thickBot="1">
       <c r="A43" s="388" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -27513,7 +27513,7 @@
       <c r="BX43" s="129" t="n"/>
       <c r="BY43" s="125" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="44" thickTop="1">
       <c r="A44" s="131" t="n"/>
       <c r="B44" s="131" t="n"/>
       <c r="C44" s="131" t="n"/>
@@ -27592,7 +27592,7 @@
       <c r="BX44" s="131" t="n"/>
       <c r="BY44" s="131" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="45">
       <c r="A45" s="132" t="n"/>
       <c r="B45" s="132" t="n"/>
       <c r="C45" s="132" t="n"/>
@@ -27671,7 +27671,7 @@
       <c r="BX45" s="132" t="n"/>
       <c r="BY45" s="132" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46">
       <c r="E46" s="133" t="n"/>
       <c r="F46" s="133" t="n"/>
       <c r="G46" s="133" t="n"/>
@@ -27742,7 +27742,7 @@
       <c r="BT46" s="133" t="n"/>
       <c r="BU46" s="135" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="47">
       <c r="E47" s="133" t="n"/>
       <c r="F47" s="133" t="n"/>
       <c r="G47" s="133" t="n"/>
@@ -27813,7 +27813,7 @@
       <c r="BT47" s="133" t="n"/>
       <c r="BU47" s="135" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="E48" s="133" t="n"/>
       <c r="F48" s="133" t="n"/>
       <c r="G48" s="133" t="n"/>
@@ -27884,7 +27884,7 @@
       <c r="BT48" s="133" t="n"/>
       <c r="BU48" s="135" t="n"/>
     </row>
-    <row r="49" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="49">
       <c r="E49" s="133" t="n"/>
       <c r="F49" s="133" t="n"/>
       <c r="G49" s="133" t="n"/>
@@ -27955,11 +27955,11 @@
       <c r="BT49" s="133" t="n"/>
       <c r="BU49" s="135" t="n"/>
     </row>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="119" t="n"/>
       <c r="B51" s="119" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="119" t="n"/>
       <c r="B52" s="119" t="n"/>
     </row>
@@ -27973,8 +27973,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -27994,16 +27994,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="107" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="107" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="333" t="inlineStr">
         <is>
           <t>Survey Information Sheet</t>
@@ -28086,7 +28086,7 @@
       <c r="BX1" s="364" t="n"/>
       <c r="BY1" s="364" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="108" t="n"/>
       <c r="B2" s="109" t="n"/>
       <c r="C2" s="109" t="n"/>
@@ -28165,7 +28165,7 @@
       <c r="BX2" s="109" t="n"/>
       <c r="BY2" s="110" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="113" t="n"/>
@@ -28244,7 +28244,7 @@
       <c r="BX3" s="113" t="n"/>
       <c r="BY3" s="114" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="113" t="n"/>
       <c r="C4" s="113" t="n"/>
@@ -28323,7 +28323,7 @@
       <c r="BX4" s="113" t="n"/>
       <c r="BY4" s="114" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="115" t="n"/>
       <c r="AW5" s="116" t="n"/>
       <c r="AX5" s="116" t="n"/>
@@ -28341,7 +28341,7 @@
       <c r="BJ5" s="116" t="n"/>
       <c r="BY5" s="117" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="115" t="n"/>
       <c r="AW6" s="116" t="n"/>
       <c r="AX6" s="116" t="n"/>
@@ -28359,7 +28359,7 @@
       <c r="BJ6" s="116" t="n"/>
       <c r="BY6" s="117" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="115" t="n"/>
       <c r="V7" s="116" t="n"/>
       <c r="W7" s="116" t="n"/>
@@ -28393,7 +28393,7 @@
       <c r="BJ7" s="118" t="n"/>
       <c r="BY7" s="117" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="115" t="n"/>
       <c r="V8" s="116" t="n"/>
       <c r="W8" s="116" t="n"/>
@@ -28427,7 +28427,7 @@
       <c r="BJ8" s="118" t="n"/>
       <c r="BY8" s="117" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="115" t="n"/>
       <c r="V9" s="118" t="n"/>
       <c r="W9" s="118" t="n"/>
@@ -28447,7 +28447,7 @@
       <c r="AK9" s="118" t="n"/>
       <c r="BY9" s="117" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="115" t="n"/>
       <c r="V10" s="118" t="n"/>
       <c r="W10" s="118" t="n"/>
@@ -28467,7 +28467,7 @@
       <c r="AK10" s="118" t="n"/>
       <c r="BY10" s="117" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="115" t="n"/>
       <c r="V11" s="118" t="n"/>
       <c r="W11" s="118" t="n"/>
@@ -28487,35 +28487,35 @@
       <c r="AK11" s="118" t="n"/>
       <c r="BY11" s="117" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="115" t="n"/>
       <c r="BY12" s="117" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="115" t="n"/>
       <c r="BY13" s="117" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="115" t="n"/>
       <c r="BY14" s="117" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="115" t="n"/>
       <c r="BY15" s="117" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="115" t="n"/>
       <c r="BY16" s="117" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="115" t="n"/>
       <c r="BY17" s="117" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="115" t="n"/>
       <c r="BY18" s="117" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="115" t="n"/>
       <c r="BY19" s="117" t="n"/>
       <c r="CP19" s="119" t="n"/>
@@ -28538,7 +28538,7 @@
       <c r="DG19" s="119" t="n"/>
       <c r="DH19" s="119" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="115" t="n"/>
       <c r="BY20" s="117" t="n"/>
       <c r="CP20" s="119" t="n"/>
@@ -28561,7 +28561,7 @@
       <c r="DG20" s="119" t="n"/>
       <c r="DH20" s="119" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="115" t="n"/>
       <c r="BY21" s="117" t="n"/>
       <c r="CP21" s="119" t="n"/>
@@ -28584,7 +28584,7 @@
       <c r="DG21" s="119" t="n"/>
       <c r="DH21" s="119" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="115" t="n"/>
       <c r="BY22" s="117" t="n"/>
       <c r="CP22" s="119" t="n"/>
@@ -28607,7 +28607,7 @@
       <c r="DG22" s="119" t="n"/>
       <c r="DH22" s="119" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="115" t="n"/>
       <c r="AL23" s="116" t="n"/>
       <c r="AM23" s="116" t="n"/>
@@ -28640,7 +28640,7 @@
       <c r="DG23" s="119" t="n"/>
       <c r="DH23" s="119" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="115" t="n"/>
       <c r="J24" s="116" t="n"/>
       <c r="K24" s="116" t="n"/>
@@ -28668,7 +28668,7 @@
       <c r="AU24" s="116" t="n"/>
       <c r="BY24" s="117" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="115" t="n"/>
       <c r="J25" s="116" t="n"/>
       <c r="K25" s="116" t="n"/>
@@ -28696,7 +28696,7 @@
       <c r="AU25" s="118" t="n"/>
       <c r="BY25" s="117" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="115" t="n"/>
       <c r="BC26" s="116" t="n"/>
       <c r="BD26" s="116" t="n"/>
@@ -28714,7 +28714,7 @@
       <c r="BP26" s="116" t="n"/>
       <c r="BY26" s="117" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="115" t="n"/>
       <c r="B27" s="119" t="n"/>
       <c r="C27" s="119" t="n"/>
@@ -28756,7 +28756,7 @@
       <c r="BP27" s="116" t="n"/>
       <c r="BY27" s="117" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="115" t="n"/>
       <c r="B28" s="119" t="n"/>
       <c r="C28" s="119" t="n"/>
@@ -28798,7 +28798,7 @@
       <c r="BP28" s="116" t="n"/>
       <c r="BY28" s="117" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="115" t="n"/>
       <c r="B29" s="119" t="n"/>
       <c r="C29" s="119" t="n"/>
@@ -28840,7 +28840,7 @@
       <c r="BP29" s="116" t="n"/>
       <c r="BY29" s="117" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="115" t="n"/>
       <c r="B30" s="119" t="n"/>
       <c r="C30" s="119" t="n"/>
@@ -28882,7 +28882,7 @@
       <c r="BP30" s="118" t="n"/>
       <c r="BY30" s="117" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="115" t="n"/>
       <c r="B31" s="119" t="n"/>
       <c r="C31" s="119" t="n"/>
@@ -28924,7 +28924,7 @@
       <c r="BP31" s="118" t="n"/>
       <c r="BY31" s="117" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="115" t="n"/>
       <c r="B32" s="119" t="n"/>
       <c r="C32" s="119" t="n"/>
@@ -28952,7 +28952,7 @@
       <c r="Y32" s="121" t="n"/>
       <c r="BY32" s="117" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="115" t="n"/>
       <c r="B33" s="119" t="n"/>
       <c r="C33" s="119" t="n"/>
@@ -29013,7 +29013,7 @@
       <c r="BS33" s="123" t="n"/>
       <c r="BY33" s="117" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="115" t="n"/>
       <c r="B34" s="119" t="n"/>
       <c r="C34" s="119" t="n"/>
@@ -29074,7 +29074,7 @@
       <c r="BS34" s="123" t="n"/>
       <c r="BY34" s="117" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="115" t="n"/>
       <c r="B35" s="119" t="n"/>
       <c r="C35" s="119" t="n"/>
@@ -29083,7 +29083,7 @@
       <c r="F35" s="119" t="n"/>
       <c r="BY35" s="117" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="115" t="n"/>
       <c r="B36" s="119" t="n"/>
       <c r="C36" s="119" t="n"/>
@@ -29092,11 +29092,11 @@
       <c r="F36" s="119" t="n"/>
       <c r="BY36" s="117" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="37">
       <c r="A37" s="115" t="n"/>
       <c r="BY37" s="117" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="38">
       <c r="A38" s="124" t="n"/>
       <c r="B38" s="335" t="inlineStr">
         <is>
@@ -29105,15 +29105,15 @@
       </c>
       <c r="BY38" s="125" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="124" t="n"/>
       <c r="BY39" s="125" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="124" t="n"/>
       <c r="BY40" s="125" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="41" thickBot="1">
       <c r="A41" s="126" t="n"/>
       <c r="B41" s="364" t="n"/>
       <c r="C41" s="364" t="n"/>
@@ -29192,7 +29192,7 @@
       <c r="BX41" s="364" t="n"/>
       <c r="BY41" s="127" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="42" thickTop="1">
       <c r="A42" s="382" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -29253,7 +29253,7 @@
       <c r="BX42" s="129" t="n"/>
       <c r="BY42" s="125" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="43" thickBot="1">
       <c r="A43" s="388" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -29314,7 +29314,7 @@
       <c r="BX43" s="129" t="n"/>
       <c r="BY43" s="125" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="44" thickTop="1">
       <c r="A44" s="131" t="n"/>
       <c r="B44" s="131" t="n"/>
       <c r="C44" s="131" t="n"/>
@@ -29393,7 +29393,7 @@
       <c r="BX44" s="131" t="n"/>
       <c r="BY44" s="131" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="45">
       <c r="A45" s="132" t="n"/>
       <c r="B45" s="132" t="n"/>
       <c r="C45" s="132" t="n"/>
@@ -29472,7 +29472,7 @@
       <c r="BX45" s="132" t="n"/>
       <c r="BY45" s="132" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46">
       <c r="E46" s="133" t="n"/>
       <c r="F46" s="133" t="n"/>
       <c r="G46" s="133" t="n"/>
@@ -29543,7 +29543,7 @@
       <c r="BT46" s="133" t="n"/>
       <c r="BU46" s="135" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="47">
       <c r="E47" s="133" t="n"/>
       <c r="F47" s="133" t="n"/>
       <c r="G47" s="133" t="n"/>
@@ -29614,7 +29614,7 @@
       <c r="BT47" s="133" t="n"/>
       <c r="BU47" s="135" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="E48" s="133" t="n"/>
       <c r="F48" s="133" t="n"/>
       <c r="G48" s="133" t="n"/>
@@ -29685,7 +29685,7 @@
       <c r="BT48" s="133" t="n"/>
       <c r="BU48" s="135" t="n"/>
     </row>
-    <row r="49" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="49">
       <c r="E49" s="133" t="n"/>
       <c r="F49" s="133" t="n"/>
       <c r="G49" s="133" t="n"/>
@@ -29756,11 +29756,11 @@
       <c r="BT49" s="133" t="n"/>
       <c r="BU49" s="135" t="n"/>
     </row>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="119" t="n"/>
       <c r="B51" s="119" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="119" t="n"/>
       <c r="B52" s="119" t="n"/>
     </row>
@@ -29774,8 +29774,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -29795,16 +29795,16 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="107" min="1" max="16384"/>
+    <col customWidth="1" max="16384" min="1" style="107" width="1.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="38.25" r="1" thickBot="1">
       <c r="A1" s="333" t="inlineStr">
         <is>
           <t>Survey Information Sheet</t>
@@ -29887,7 +29887,7 @@
       <c r="BX1" s="364" t="n"/>
       <c r="BY1" s="364" t="n"/>
     </row>
-    <row r="2" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="2" thickTop="1">
       <c r="A2" s="108" t="n"/>
       <c r="B2" s="109" t="n"/>
       <c r="C2" s="109" t="n"/>
@@ -29966,7 +29966,7 @@
       <c r="BX2" s="109" t="n"/>
       <c r="BY2" s="110" t="n"/>
     </row>
-    <row r="3" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="3">
       <c r="A3" s="111" t="n"/>
       <c r="B3" s="112" t="n"/>
       <c r="C3" s="113" t="n"/>
@@ -30045,7 +30045,7 @@
       <c r="BX3" s="113" t="n"/>
       <c r="BY3" s="114" t="n"/>
     </row>
-    <row r="4" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="4">
       <c r="A4" s="111" t="n"/>
       <c r="B4" s="113" t="n"/>
       <c r="C4" s="113" t="n"/>
@@ -30124,7 +30124,7 @@
       <c r="BX4" s="113" t="n"/>
       <c r="BY4" s="114" t="n"/>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="5">
       <c r="A5" s="115" t="n"/>
       <c r="AW5" s="116" t="n"/>
       <c r="AX5" s="116" t="n"/>
@@ -30142,7 +30142,7 @@
       <c r="BJ5" s="116" t="n"/>
       <c r="BY5" s="117" t="n"/>
     </row>
-    <row r="6" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="6">
       <c r="A6" s="115" t="n"/>
       <c r="AW6" s="116" t="n"/>
       <c r="AX6" s="116" t="n"/>
@@ -30160,7 +30160,7 @@
       <c r="BJ6" s="116" t="n"/>
       <c r="BY6" s="117" t="n"/>
     </row>
-    <row r="7" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="7">
       <c r="A7" s="115" t="n"/>
       <c r="V7" s="116" t="n"/>
       <c r="W7" s="116" t="n"/>
@@ -30194,7 +30194,7 @@
       <c r="BJ7" s="118" t="n"/>
       <c r="BY7" s="117" t="n"/>
     </row>
-    <row r="8" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="8">
       <c r="A8" s="115" t="n"/>
       <c r="V8" s="116" t="n"/>
       <c r="W8" s="116" t="n"/>
@@ -30228,7 +30228,7 @@
       <c r="BJ8" s="118" t="n"/>
       <c r="BY8" s="117" t="n"/>
     </row>
-    <row r="9" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="9">
       <c r="A9" s="115" t="n"/>
       <c r="V9" s="118" t="n"/>
       <c r="W9" s="118" t="n"/>
@@ -30248,7 +30248,7 @@
       <c r="AK9" s="118" t="n"/>
       <c r="BY9" s="117" t="n"/>
     </row>
-    <row r="10" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="10">
       <c r="A10" s="115" t="n"/>
       <c r="V10" s="118" t="n"/>
       <c r="W10" s="118" t="n"/>
@@ -30268,7 +30268,7 @@
       <c r="AK10" s="118" t="n"/>
       <c r="BY10" s="117" t="n"/>
     </row>
-    <row r="11" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="11">
       <c r="A11" s="115" t="n"/>
       <c r="V11" s="118" t="n"/>
       <c r="W11" s="118" t="n"/>
@@ -30288,35 +30288,35 @@
       <c r="AK11" s="118" t="n"/>
       <c r="BY11" s="117" t="n"/>
     </row>
-    <row r="12" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="12">
       <c r="A12" s="115" t="n"/>
       <c r="BY12" s="117" t="n"/>
     </row>
-    <row r="13" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="13">
       <c r="A13" s="115" t="n"/>
       <c r="BY13" s="117" t="n"/>
     </row>
-    <row r="14" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="14">
       <c r="A14" s="115" t="n"/>
       <c r="BY14" s="117" t="n"/>
     </row>
-    <row r="15" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="15">
       <c r="A15" s="115" t="n"/>
       <c r="BY15" s="117" t="n"/>
     </row>
-    <row r="16" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="16">
       <c r="A16" s="115" t="n"/>
       <c r="BY16" s="117" t="n"/>
     </row>
-    <row r="17" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="17">
       <c r="A17" s="115" t="n"/>
       <c r="BY17" s="117" t="n"/>
     </row>
-    <row r="18" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="18">
       <c r="A18" s="115" t="n"/>
       <c r="BY18" s="117" t="n"/>
     </row>
-    <row r="19" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="19">
       <c r="A19" s="115" t="n"/>
       <c r="BY19" s="117" t="n"/>
       <c r="CP19" s="119" t="n"/>
@@ -30339,7 +30339,7 @@
       <c r="DG19" s="119" t="n"/>
       <c r="DH19" s="119" t="n"/>
     </row>
-    <row r="20" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="20">
       <c r="A20" s="115" t="n"/>
       <c r="BY20" s="117" t="n"/>
       <c r="CP20" s="119" t="n"/>
@@ -30362,7 +30362,7 @@
       <c r="DG20" s="119" t="n"/>
       <c r="DH20" s="119" t="n"/>
     </row>
-    <row r="21" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="21">
       <c r="A21" s="115" t="n"/>
       <c r="BY21" s="117" t="n"/>
       <c r="CP21" s="119" t="n"/>
@@ -30385,7 +30385,7 @@
       <c r="DG21" s="119" t="n"/>
       <c r="DH21" s="119" t="n"/>
     </row>
-    <row r="22" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="22">
       <c r="A22" s="115" t="n"/>
       <c r="BY22" s="117" t="n"/>
       <c r="CP22" s="119" t="n"/>
@@ -30408,7 +30408,7 @@
       <c r="DG22" s="119" t="n"/>
       <c r="DH22" s="119" t="n"/>
     </row>
-    <row r="23" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="23">
       <c r="A23" s="115" t="n"/>
       <c r="AL23" s="116" t="n"/>
       <c r="AM23" s="116" t="n"/>
@@ -30441,7 +30441,7 @@
       <c r="DG23" s="119" t="n"/>
       <c r="DH23" s="119" t="n"/>
     </row>
-    <row r="24" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="24">
       <c r="A24" s="115" t="n"/>
       <c r="J24" s="116" t="n"/>
       <c r="K24" s="116" t="n"/>
@@ -30469,7 +30469,7 @@
       <c r="AU24" s="116" t="n"/>
       <c r="BY24" s="117" t="n"/>
     </row>
-    <row r="25" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="25">
       <c r="A25" s="115" t="n"/>
       <c r="J25" s="116" t="n"/>
       <c r="K25" s="116" t="n"/>
@@ -30497,7 +30497,7 @@
       <c r="AU25" s="118" t="n"/>
       <c r="BY25" s="117" t="n"/>
     </row>
-    <row r="26" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="26">
       <c r="A26" s="115" t="n"/>
       <c r="BC26" s="116" t="n"/>
       <c r="BD26" s="116" t="n"/>
@@ -30515,7 +30515,7 @@
       <c r="BP26" s="116" t="n"/>
       <c r="BY26" s="117" t="n"/>
     </row>
-    <row r="27" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="27">
       <c r="A27" s="115" t="n"/>
       <c r="B27" s="119" t="n"/>
       <c r="C27" s="119" t="n"/>
@@ -30557,7 +30557,7 @@
       <c r="BP27" s="116" t="n"/>
       <c r="BY27" s="117" t="n"/>
     </row>
-    <row r="28" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="28">
       <c r="A28" s="115" t="n"/>
       <c r="B28" s="119" t="n"/>
       <c r="C28" s="119" t="n"/>
@@ -30599,7 +30599,7 @@
       <c r="BP28" s="116" t="n"/>
       <c r="BY28" s="117" t="n"/>
     </row>
-    <row r="29" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="29">
       <c r="A29" s="115" t="n"/>
       <c r="B29" s="119" t="n"/>
       <c r="C29" s="119" t="n"/>
@@ -30641,7 +30641,7 @@
       <c r="BP29" s="116" t="n"/>
       <c r="BY29" s="117" t="n"/>
     </row>
-    <row r="30" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="30">
       <c r="A30" s="115" t="n"/>
       <c r="B30" s="119" t="n"/>
       <c r="C30" s="119" t="n"/>
@@ -30683,7 +30683,7 @@
       <c r="BP30" s="118" t="n"/>
       <c r="BY30" s="117" t="n"/>
     </row>
-    <row r="31" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="31">
       <c r="A31" s="115" t="n"/>
       <c r="B31" s="119" t="n"/>
       <c r="C31" s="119" t="n"/>
@@ -30725,7 +30725,7 @@
       <c r="BP31" s="118" t="n"/>
       <c r="BY31" s="117" t="n"/>
     </row>
-    <row r="32" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="32">
       <c r="A32" s="115" t="n"/>
       <c r="B32" s="119" t="n"/>
       <c r="C32" s="119" t="n"/>
@@ -30753,7 +30753,7 @@
       <c r="Y32" s="121" t="n"/>
       <c r="BY32" s="117" t="n"/>
     </row>
-    <row r="33" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="33">
       <c r="A33" s="115" t="n"/>
       <c r="B33" s="119" t="n"/>
       <c r="C33" s="119" t="n"/>
@@ -30814,7 +30814,7 @@
       <c r="BS33" s="123" t="n"/>
       <c r="BY33" s="117" t="n"/>
     </row>
-    <row r="34" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="34">
       <c r="A34" s="115" t="n"/>
       <c r="B34" s="119" t="n"/>
       <c r="C34" s="119" t="n"/>
@@ -30875,7 +30875,7 @@
       <c r="BS34" s="123" t="n"/>
       <c r="BY34" s="117" t="n"/>
     </row>
-    <row r="35" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="35">
       <c r="A35" s="115" t="n"/>
       <c r="B35" s="119" t="n"/>
       <c r="C35" s="119" t="n"/>
@@ -30884,7 +30884,7 @@
       <c r="F35" s="119" t="n"/>
       <c r="BY35" s="117" t="n"/>
     </row>
-    <row r="36" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="36">
       <c r="A36" s="115" t="n"/>
       <c r="B36" s="119" t="n"/>
       <c r="C36" s="119" t="n"/>
@@ -30893,11 +30893,11 @@
       <c r="F36" s="119" t="n"/>
       <c r="BY36" s="117" t="n"/>
     </row>
-    <row r="37" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="37">
       <c r="A37" s="115" t="n"/>
       <c r="BY37" s="117" t="n"/>
     </row>
-    <row r="38" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="38">
       <c r="A38" s="124" t="n"/>
       <c r="B38" s="335" t="inlineStr">
         <is>
@@ -30906,15 +30906,15 @@
       </c>
       <c r="BY38" s="125" t="n"/>
     </row>
-    <row r="39" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="39">
       <c r="A39" s="124" t="n"/>
       <c r="BY39" s="125" t="n"/>
     </row>
-    <row r="40" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="40">
       <c r="A40" s="124" t="n"/>
       <c r="BY40" s="125" t="n"/>
     </row>
-    <row r="41" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="41" thickBot="1">
       <c r="A41" s="126" t="n"/>
       <c r="B41" s="364" t="n"/>
       <c r="C41" s="364" t="n"/>
@@ -30993,7 +30993,7 @@
       <c r="BX41" s="364" t="n"/>
       <c r="BY41" s="127" t="n"/>
     </row>
-    <row r="42" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="42" thickTop="1">
       <c r="A42" s="382" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -31054,7 +31054,7 @@
       <c r="BX42" s="129" t="n"/>
       <c r="BY42" s="125" t="n"/>
     </row>
-    <row r="43" ht="12" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="12" r="43" thickBot="1">
       <c r="A43" s="388" t="inlineStr">
         <is>
           <t>Survey Unit</t>
@@ -31115,7 +31115,7 @@
       <c r="BX43" s="129" t="n"/>
       <c r="BY43" s="125" t="n"/>
     </row>
-    <row r="44" ht="12" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="12" r="44" thickTop="1">
       <c r="A44" s="131" t="n"/>
       <c r="B44" s="131" t="n"/>
       <c r="C44" s="131" t="n"/>
@@ -31194,7 +31194,7 @@
       <c r="BX44" s="131" t="n"/>
       <c r="BY44" s="131" t="n"/>
     </row>
-    <row r="45" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="45">
       <c r="A45" s="132" t="n"/>
       <c r="B45" s="132" t="n"/>
       <c r="C45" s="132" t="n"/>
@@ -31273,7 +31273,7 @@
       <c r="BX45" s="132" t="n"/>
       <c r="BY45" s="132" t="n"/>
     </row>
-    <row r="46" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="46">
       <c r="E46" s="133" t="n"/>
       <c r="F46" s="133" t="n"/>
       <c r="G46" s="133" t="n"/>
@@ -31344,7 +31344,7 @@
       <c r="BT46" s="133" t="n"/>
       <c r="BU46" s="135" t="n"/>
     </row>
-    <row r="47" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="47">
       <c r="E47" s="133" t="n"/>
       <c r="F47" s="133" t="n"/>
       <c r="G47" s="133" t="n"/>
@@ -31415,7 +31415,7 @@
       <c r="BT47" s="133" t="n"/>
       <c r="BU47" s="135" t="n"/>
     </row>
-    <row r="48" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="48">
       <c r="E48" s="133" t="n"/>
       <c r="F48" s="133" t="n"/>
       <c r="G48" s="133" t="n"/>
@@ -31486,7 +31486,7 @@
       <c r="BT48" s="133" t="n"/>
       <c r="BU48" s="135" t="n"/>
     </row>
-    <row r="49" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="49">
       <c r="E49" s="133" t="n"/>
       <c r="F49" s="133" t="n"/>
       <c r="G49" s="133" t="n"/>
@@ -31557,11 +31557,11 @@
       <c r="BT49" s="133" t="n"/>
       <c r="BU49" s="135" t="n"/>
     </row>
-    <row r="51" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="51">
       <c r="A51" s="119" t="n"/>
       <c r="B51" s="119" t="n"/>
     </row>
-    <row r="52" ht="12" customHeight="1">
+    <row customHeight="1" ht="12" r="52">
       <c r="A52" s="119" t="n"/>
       <c r="B52" s="119" t="n"/>
     </row>
@@ -31575,8 +31575,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
-  <pageSetup orientation="landscape" fitToHeight="0"/>
+  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
+  <pageSetup fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
